--- a/config_2.9/shoping_config.xlsx
+++ b/config_2.9/shoping_config.xlsx
@@ -11540,10 +11540,10 @@
   <dimension ref="A1:AN565"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="W515" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="W509" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AA529" sqref="AA529"/>
+      <selection pane="bottomRight" activeCell="Z529" sqref="Z529"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -44836,10 +44836,10 @@
         <v>99999999</v>
       </c>
       <c r="Y521" s="19">
-        <v>1612828800</v>
+        <v>1613433600</v>
       </c>
       <c r="Z521" s="19">
-        <v>1613404799</v>
+        <v>1614009599</v>
       </c>
       <c r="AA521" s="19">
         <v>70</v>
@@ -44904,10 +44904,10 @@
         <v>99999999</v>
       </c>
       <c r="Y522" s="19">
-        <v>1612828800</v>
+        <v>1613433600</v>
       </c>
       <c r="Z522" s="19">
-        <v>1613404799</v>
+        <v>1614009599</v>
       </c>
       <c r="AA522" s="19">
         <v>70</v>
@@ -44972,10 +44972,10 @@
         <v>99999999</v>
       </c>
       <c r="Y523" s="19">
-        <v>1612828800</v>
+        <v>1613433600</v>
       </c>
       <c r="Z523" s="19">
-        <v>1613404799</v>
+        <v>1614009599</v>
       </c>
       <c r="AA523" s="19">
         <v>70</v>
@@ -45040,10 +45040,10 @@
         <v>99999999</v>
       </c>
       <c r="Y524" s="19">
-        <v>1612828800</v>
+        <v>1613433600</v>
       </c>
       <c r="Z524" s="19">
-        <v>1613404799</v>
+        <v>1614009599</v>
       </c>
       <c r="AA524" s="19">
         <v>70</v>
@@ -45108,10 +45108,10 @@
         <v>99999999</v>
       </c>
       <c r="Y525" s="19">
-        <v>1612828800</v>
+        <v>1613433600</v>
       </c>
       <c r="Z525" s="19">
-        <v>1613404799</v>
+        <v>1614009599</v>
       </c>
       <c r="AA525" s="19">
         <v>71</v>
@@ -45176,10 +45176,10 @@
         <v>99999999</v>
       </c>
       <c r="Y526" s="19">
-        <v>1612828800</v>
+        <v>1613433600</v>
       </c>
       <c r="Z526" s="19">
-        <v>1613404799</v>
+        <v>1614009599</v>
       </c>
       <c r="AA526" s="19">
         <v>71</v>
@@ -45244,10 +45244,10 @@
         <v>99999999</v>
       </c>
       <c r="Y527" s="19">
-        <v>1612828800</v>
+        <v>1613433600</v>
       </c>
       <c r="Z527" s="19">
-        <v>1613404799</v>
+        <v>1614009599</v>
       </c>
       <c r="AA527" s="19">
         <v>71</v>
@@ -45312,10 +45312,10 @@
         <v>99999999</v>
       </c>
       <c r="Y528" s="19">
-        <v>1612828800</v>
+        <v>1613433600</v>
       </c>
       <c r="Z528" s="19">
-        <v>1613404799</v>
+        <v>1614009599</v>
       </c>
       <c r="AA528" s="19">
         <v>71</v>
@@ -45380,10 +45380,10 @@
         <v>99999999</v>
       </c>
       <c r="Y529" s="19">
-        <v>1612828800</v>
+        <v>1613433600</v>
       </c>
       <c r="Z529" s="19">
-        <v>1613404799</v>
+        <v>1614009599</v>
       </c>
       <c r="AA529" s="19">
         <v>72</v>
@@ -45448,10 +45448,10 @@
         <v>99999999</v>
       </c>
       <c r="Y530" s="19">
-        <v>1612828800</v>
+        <v>1613433600</v>
       </c>
       <c r="Z530" s="19">
-        <v>1613404799</v>
+        <v>1614009599</v>
       </c>
       <c r="AA530" s="19">
         <v>72</v>
@@ -45516,10 +45516,10 @@
         <v>99999999</v>
       </c>
       <c r="Y531" s="19">
-        <v>1612828800</v>
+        <v>1613433600</v>
       </c>
       <c r="Z531" s="19">
-        <v>1613404799</v>
+        <v>1614009599</v>
       </c>
       <c r="AA531" s="19">
         <v>72</v>
@@ -45584,10 +45584,10 @@
         <v>99999999</v>
       </c>
       <c r="Y532" s="19">
-        <v>1612828800</v>
+        <v>1613433600</v>
       </c>
       <c r="Z532" s="19">
-        <v>1613404799</v>
+        <v>1614009599</v>
       </c>
       <c r="AA532" s="19">
         <v>72</v>

--- a/config_2.9/shoping_config.xlsx
+++ b/config_2.9/shoping_config.xlsx
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4515" uniqueCount="2004">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4578" uniqueCount="2022">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -8572,6 +8572,78 @@
   </si>
   <si>
     <t>5000000,2,30,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>财神商铺</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"20万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"200万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"510万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"20万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"300万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1020万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"20万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"510万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2050万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>200000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5100000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>200000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10200000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>200000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20500000,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -11465,13 +11537,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN556"/>
+  <dimension ref="A1:AN565"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="X539" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="W539" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X551" sqref="X551"/>
+      <selection pane="bottomRight" activeCell="G559" sqref="G559"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -46601,7 +46673,7 @@
       </c>
     </row>
     <row r="549" spans="1:39" s="79" customFormat="1">
-      <c r="A549" s="79">
+      <c r="A549" s="5">
         <v>548</v>
       </c>
       <c r="B549" s="79">
@@ -46669,7 +46741,7 @@
       </c>
     </row>
     <row r="550" spans="1:39" s="79" customFormat="1">
-      <c r="A550" s="79">
+      <c r="A550" s="5">
         <v>549</v>
       </c>
       <c r="B550" s="79">
@@ -46737,7 +46809,7 @@
       </c>
     </row>
     <row r="551" spans="1:39" s="79" customFormat="1">
-      <c r="A551" s="79">
+      <c r="A551" s="5">
         <v>550</v>
       </c>
       <c r="B551" s="79">
@@ -46805,7 +46877,7 @@
       </c>
     </row>
     <row r="552" spans="1:39" s="79" customFormat="1">
-      <c r="A552" s="79">
+      <c r="A552" s="5">
         <v>551</v>
       </c>
       <c r="B552" s="79">
@@ -46873,7 +46945,7 @@
       </c>
     </row>
     <row r="553" spans="1:39" s="81" customFormat="1">
-      <c r="A553" s="81">
+      <c r="A553" s="5">
         <v>552</v>
       </c>
       <c r="B553" s="81">
@@ -46941,7 +47013,7 @@
       </c>
     </row>
     <row r="554" spans="1:39" s="81" customFormat="1">
-      <c r="A554" s="81">
+      <c r="A554" s="5">
         <v>553</v>
       </c>
       <c r="B554" s="81">
@@ -47009,7 +47081,7 @@
       </c>
     </row>
     <row r="555" spans="1:39" s="81" customFormat="1">
-      <c r="A555" s="81">
+      <c r="A555" s="5">
         <v>554</v>
       </c>
       <c r="B555" s="81">
@@ -47077,7 +47149,7 @@
       </c>
     </row>
     <row r="556" spans="1:39" s="81" customFormat="1">
-      <c r="A556" s="81">
+      <c r="A556" s="5">
         <v>555</v>
       </c>
       <c r="B556" s="81">
@@ -47141,6 +47213,600 @@
         <v>1</v>
       </c>
       <c r="AM556" s="81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="557" spans="1:39" s="19" customFormat="1">
+      <c r="A557" s="5">
+        <v>556</v>
+      </c>
+      <c r="B557" s="19">
+        <v>10473</v>
+      </c>
+      <c r="F557" s="19">
+        <v>1</v>
+      </c>
+      <c r="G557" s="19" t="s">
+        <v>584</v>
+      </c>
+      <c r="I557" s="19" t="s">
+        <v>2004</v>
+      </c>
+      <c r="J557" s="19" t="s">
+        <v>2005</v>
+      </c>
+      <c r="L557" s="19">
+        <v>-25</v>
+      </c>
+      <c r="M557" s="19">
+        <v>0</v>
+      </c>
+      <c r="N557" s="19">
+        <v>0</v>
+      </c>
+      <c r="O557" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="P557" s="19">
+        <v>100</v>
+      </c>
+      <c r="Q557" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="R557" s="39" t="s">
+        <v>2014</v>
+      </c>
+      <c r="W557" s="19" t="s">
+        <v>546</v>
+      </c>
+      <c r="X557" s="19">
+        <v>50</v>
+      </c>
+      <c r="Y557" s="19">
+        <v>1613433600</v>
+      </c>
+      <c r="Z557" s="19">
+        <v>1613440800</v>
+      </c>
+      <c r="AE557" s="19">
+        <f t="shared" ref="AE557:AE565" si="1">24*60*60</f>
+        <v>86400</v>
+      </c>
+      <c r="AF557" s="19">
+        <v>7</v>
+      </c>
+      <c r="AH557" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI557" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="558" spans="1:39" s="19" customFormat="1">
+      <c r="A558" s="5">
+        <v>557</v>
+      </c>
+      <c r="B558" s="19">
+        <v>10474</v>
+      </c>
+      <c r="F558" s="19">
+        <v>1</v>
+      </c>
+      <c r="G558" s="19" t="s">
+        <v>536</v>
+      </c>
+      <c r="I558" s="19" t="s">
+        <v>2004</v>
+      </c>
+      <c r="J558" s="19" t="s">
+        <v>2006</v>
+      </c>
+      <c r="L558" s="19">
+        <v>-25</v>
+      </c>
+      <c r="M558" s="19">
+        <v>0</v>
+      </c>
+      <c r="N558" s="19">
+        <v>0</v>
+      </c>
+      <c r="O558" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="P558" s="19">
+        <v>1800</v>
+      </c>
+      <c r="Q558" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="R558" s="39" t="s">
+        <v>2015</v>
+      </c>
+      <c r="W558" s="19" t="s">
+        <v>546</v>
+      </c>
+      <c r="X558" s="19">
+        <v>20</v>
+      </c>
+      <c r="Y558" s="19">
+        <v>1613433600</v>
+      </c>
+      <c r="Z558" s="19">
+        <v>1613440800</v>
+      </c>
+      <c r="AE558" s="19">
+        <f t="shared" si="1"/>
+        <v>86400</v>
+      </c>
+      <c r="AF558" s="19">
+        <v>7</v>
+      </c>
+      <c r="AH558" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI558" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="559" spans="1:39" s="19" customFormat="1">
+      <c r="A559" s="5">
+        <v>558</v>
+      </c>
+      <c r="B559" s="19">
+        <v>10475</v>
+      </c>
+      <c r="F559" s="19">
+        <v>1</v>
+      </c>
+      <c r="G559" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="I559" s="19" t="s">
+        <v>2004</v>
+      </c>
+      <c r="J559" s="19" t="s">
+        <v>2007</v>
+      </c>
+      <c r="L559" s="19">
+        <v>-25</v>
+      </c>
+      <c r="M559" s="19">
+        <v>0</v>
+      </c>
+      <c r="N559" s="19">
+        <v>0</v>
+      </c>
+      <c r="O559" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="P559" s="19">
+        <v>4800</v>
+      </c>
+      <c r="Q559" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="R559" s="39" t="s">
+        <v>2016</v>
+      </c>
+      <c r="W559" s="19" t="s">
+        <v>546</v>
+      </c>
+      <c r="X559" s="19">
+        <v>10</v>
+      </c>
+      <c r="Y559" s="19">
+        <v>1613433600</v>
+      </c>
+      <c r="Z559" s="19">
+        <v>1613440800</v>
+      </c>
+      <c r="AE559" s="19">
+        <f t="shared" si="1"/>
+        <v>86400</v>
+      </c>
+      <c r="AF559" s="19">
+        <v>7</v>
+      </c>
+      <c r="AH559" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI559" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="560" spans="1:39" s="19" customFormat="1">
+      <c r="A560" s="5">
+        <v>559</v>
+      </c>
+      <c r="B560" s="19">
+        <v>10476</v>
+      </c>
+      <c r="F560" s="19">
+        <v>1</v>
+      </c>
+      <c r="G560" s="19" t="s">
+        <v>584</v>
+      </c>
+      <c r="I560" s="19" t="s">
+        <v>2004</v>
+      </c>
+      <c r="J560" s="19" t="s">
+        <v>2008</v>
+      </c>
+      <c r="L560" s="19">
+        <v>-25</v>
+      </c>
+      <c r="M560" s="19">
+        <v>0</v>
+      </c>
+      <c r="N560" s="19">
+        <v>0</v>
+      </c>
+      <c r="O560" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="P560" s="19">
+        <v>100</v>
+      </c>
+      <c r="Q560" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="R560" s="39" t="s">
+        <v>2017</v>
+      </c>
+      <c r="W560" s="19" t="s">
+        <v>546</v>
+      </c>
+      <c r="X560" s="19">
+        <v>50</v>
+      </c>
+      <c r="Y560" s="19">
+        <v>1613448000</v>
+      </c>
+      <c r="Z560" s="19">
+        <v>1613455200</v>
+      </c>
+      <c r="AE560" s="19">
+        <f t="shared" si="1"/>
+        <v>86400</v>
+      </c>
+      <c r="AF560" s="19">
+        <v>7</v>
+      </c>
+      <c r="AH560" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI560" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="561" spans="1:35" s="19" customFormat="1">
+      <c r="A561" s="5">
+        <v>560</v>
+      </c>
+      <c r="B561" s="19">
+        <v>10477</v>
+      </c>
+      <c r="F561" s="19">
+        <v>1</v>
+      </c>
+      <c r="G561" s="19" t="s">
+        <v>537</v>
+      </c>
+      <c r="I561" s="19" t="s">
+        <v>2004</v>
+      </c>
+      <c r="J561" s="19" t="s">
+        <v>2009</v>
+      </c>
+      <c r="L561" s="19">
+        <v>-25</v>
+      </c>
+      <c r="M561" s="19">
+        <v>0</v>
+      </c>
+      <c r="N561" s="19">
+        <v>0</v>
+      </c>
+      <c r="O561" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="P561" s="19">
+        <v>2800</v>
+      </c>
+      <c r="Q561" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="R561" s="39" t="s">
+        <v>2018</v>
+      </c>
+      <c r="W561" s="19" t="s">
+        <v>546</v>
+      </c>
+      <c r="X561" s="19">
+        <v>20</v>
+      </c>
+      <c r="Y561" s="19">
+        <v>1613448000</v>
+      </c>
+      <c r="Z561" s="19">
+        <v>1613455200</v>
+      </c>
+      <c r="AE561" s="19">
+        <f t="shared" si="1"/>
+        <v>86400</v>
+      </c>
+      <c r="AF561" s="19">
+        <v>7</v>
+      </c>
+      <c r="AH561" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI561" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="562" spans="1:35" s="19" customFormat="1">
+      <c r="A562" s="5">
+        <v>561</v>
+      </c>
+      <c r="B562" s="19">
+        <v>10478</v>
+      </c>
+      <c r="F562" s="19">
+        <v>1</v>
+      </c>
+      <c r="G562" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="I562" s="19" t="s">
+        <v>2004</v>
+      </c>
+      <c r="J562" s="19" t="s">
+        <v>2010</v>
+      </c>
+      <c r="L562" s="19">
+        <v>-25</v>
+      </c>
+      <c r="M562" s="19">
+        <v>0</v>
+      </c>
+      <c r="N562" s="19">
+        <v>0</v>
+      </c>
+      <c r="O562" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="P562" s="19">
+        <v>9800</v>
+      </c>
+      <c r="Q562" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="R562" s="39" t="s">
+        <v>2019</v>
+      </c>
+      <c r="W562" s="19" t="s">
+        <v>546</v>
+      </c>
+      <c r="X562" s="19">
+        <v>10</v>
+      </c>
+      <c r="Y562" s="19">
+        <v>1613448000</v>
+      </c>
+      <c r="Z562" s="19">
+        <v>1613455200</v>
+      </c>
+      <c r="AE562" s="19">
+        <f t="shared" si="1"/>
+        <v>86400</v>
+      </c>
+      <c r="AF562" s="19">
+        <v>7</v>
+      </c>
+      <c r="AH562" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI562" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="563" spans="1:35" s="19" customFormat="1">
+      <c r="A563" s="5">
+        <v>562</v>
+      </c>
+      <c r="B563" s="19">
+        <v>10479</v>
+      </c>
+      <c r="F563" s="19">
+        <v>1</v>
+      </c>
+      <c r="G563" s="19" t="s">
+        <v>584</v>
+      </c>
+      <c r="I563" s="19" t="s">
+        <v>2004</v>
+      </c>
+      <c r="J563" s="19" t="s">
+        <v>2011</v>
+      </c>
+      <c r="L563" s="19">
+        <v>-25</v>
+      </c>
+      <c r="M563" s="19">
+        <v>0</v>
+      </c>
+      <c r="N563" s="19">
+        <v>0</v>
+      </c>
+      <c r="O563" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="P563" s="19">
+        <v>100</v>
+      </c>
+      <c r="Q563" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="R563" s="39" t="s">
+        <v>2020</v>
+      </c>
+      <c r="W563" s="19" t="s">
+        <v>546</v>
+      </c>
+      <c r="X563" s="19">
+        <v>50</v>
+      </c>
+      <c r="Y563" s="19">
+        <v>1613469600</v>
+      </c>
+      <c r="Z563" s="19">
+        <v>1613484000</v>
+      </c>
+      <c r="AE563" s="19">
+        <f t="shared" si="1"/>
+        <v>86400</v>
+      </c>
+      <c r="AF563" s="19">
+        <v>7</v>
+      </c>
+      <c r="AH563" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI563" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="564" spans="1:35" s="19" customFormat="1">
+      <c r="A564" s="5">
+        <v>563</v>
+      </c>
+      <c r="B564" s="19">
+        <v>10480</v>
+      </c>
+      <c r="F564" s="19">
+        <v>1</v>
+      </c>
+      <c r="G564" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="I564" s="19" t="s">
+        <v>2004</v>
+      </c>
+      <c r="J564" s="19" t="s">
+        <v>2012</v>
+      </c>
+      <c r="L564" s="19">
+        <v>-25</v>
+      </c>
+      <c r="M564" s="19">
+        <v>0</v>
+      </c>
+      <c r="N564" s="19">
+        <v>0</v>
+      </c>
+      <c r="O564" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="P564" s="19">
+        <v>4800</v>
+      </c>
+      <c r="Q564" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="R564" s="39" t="s">
+        <v>2016</v>
+      </c>
+      <c r="W564" s="19" t="s">
+        <v>546</v>
+      </c>
+      <c r="X564" s="19">
+        <v>20</v>
+      </c>
+      <c r="Y564" s="19">
+        <v>1613469600</v>
+      </c>
+      <c r="Z564" s="19">
+        <v>1613484000</v>
+      </c>
+      <c r="AE564" s="19">
+        <f t="shared" si="1"/>
+        <v>86400</v>
+      </c>
+      <c r="AF564" s="19">
+        <v>7</v>
+      </c>
+      <c r="AH564" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI564" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="565" spans="1:35" s="19" customFormat="1">
+      <c r="A565" s="5">
+        <v>564</v>
+      </c>
+      <c r="B565" s="19">
+        <v>10481</v>
+      </c>
+      <c r="F565" s="19">
+        <v>1</v>
+      </c>
+      <c r="G565" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="I565" s="19" t="s">
+        <v>2004</v>
+      </c>
+      <c r="J565" s="19" t="s">
+        <v>2013</v>
+      </c>
+      <c r="L565" s="19">
+        <v>-25</v>
+      </c>
+      <c r="M565" s="19">
+        <v>0</v>
+      </c>
+      <c r="N565" s="19">
+        <v>0</v>
+      </c>
+      <c r="O565" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="P565" s="19">
+        <v>19800</v>
+      </c>
+      <c r="Q565" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="R565" s="39" t="s">
+        <v>2021</v>
+      </c>
+      <c r="W565" s="19" t="s">
+        <v>546</v>
+      </c>
+      <c r="X565" s="19">
+        <v>10</v>
+      </c>
+      <c r="Y565" s="19">
+        <v>1613469600</v>
+      </c>
+      <c r="Z565" s="19">
+        <v>1613484000</v>
+      </c>
+      <c r="AE565" s="19">
+        <f t="shared" si="1"/>
+        <v>86400</v>
+      </c>
+      <c r="AF565" s="19">
+        <v>7</v>
+      </c>
+      <c r="AH565" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI565" s="19">
         <v>1</v>
       </c>
     </row>

--- a/config_2.9/shoping_config.xlsx
+++ b/config_2.9/shoping_config.xlsx
@@ -11540,10 +11540,10 @@
   <dimension ref="A1:AN565"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="W539" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="W515" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G559" sqref="G559"/>
+      <selection pane="bottomRight" activeCell="AA529" sqref="AA529"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -44789,819 +44789,819 @@
         <v>1</v>
       </c>
     </row>
-    <row r="521" spans="1:39" s="5" customFormat="1">
-      <c r="A521" s="5">
+    <row r="521" spans="1:39" s="19" customFormat="1">
+      <c r="A521" s="19">
         <v>520</v>
       </c>
-      <c r="B521" s="5">
+      <c r="B521" s="19">
         <v>10437</v>
       </c>
-      <c r="F521" s="5">
-        <v>1</v>
-      </c>
-      <c r="G521" s="5" t="s">
+      <c r="F521" s="19">
+        <v>1</v>
+      </c>
+      <c r="G521" s="19" t="s">
         <v>1912</v>
       </c>
-      <c r="I521" s="5" t="s">
+      <c r="I521" s="19" t="s">
         <v>1916</v>
       </c>
-      <c r="J521" s="5" t="s">
+      <c r="J521" s="19" t="s">
         <v>1919</v>
       </c>
-      <c r="L521" s="5">
+      <c r="L521" s="19">
         <v>-33</v>
       </c>
-      <c r="M521" s="5">
-        <v>0</v>
-      </c>
-      <c r="N521" s="5">
-        <v>0</v>
-      </c>
-      <c r="O521" s="5" t="s">
+      <c r="M521" s="19">
+        <v>0</v>
+      </c>
+      <c r="N521" s="19">
+        <v>0</v>
+      </c>
+      <c r="O521" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="P521" s="5">
+      <c r="P521" s="19">
         <v>600</v>
       </c>
-      <c r="Q521" s="5" t="s">
+      <c r="Q521" s="19" t="s">
         <v>1932</v>
       </c>
-      <c r="R521" s="10" t="s">
+      <c r="R521" s="39" t="s">
         <v>1971</v>
       </c>
-      <c r="W521" s="5" t="s">
+      <c r="W521" s="19" t="s">
         <v>1947</v>
       </c>
-      <c r="X521" s="5">
+      <c r="X521" s="19">
         <v>99999999</v>
       </c>
-      <c r="Y521" s="5">
-        <v>1611014400</v>
-      </c>
-      <c r="Z521" s="5">
-        <v>1611590399</v>
-      </c>
-      <c r="AA521" s="5">
+      <c r="Y521" s="19">
+        <v>1612828800</v>
+      </c>
+      <c r="Z521" s="19">
+        <v>1613404799</v>
+      </c>
+      <c r="AA521" s="19">
         <v>70</v>
       </c>
-      <c r="AH521" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI521" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL521" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM521" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="522" spans="1:39" s="5" customFormat="1">
-      <c r="A522" s="5">
+      <c r="AH521" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI521" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL521" s="19">
+        <v>1</v>
+      </c>
+      <c r="AM521" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="522" spans="1:39" s="19" customFormat="1">
+      <c r="A522" s="19">
         <v>521</v>
       </c>
-      <c r="B522" s="5">
+      <c r="B522" s="19">
         <v>10438</v>
       </c>
-      <c r="F522" s="5">
-        <v>1</v>
-      </c>
-      <c r="G522" s="5" t="s">
+      <c r="F522" s="19">
+        <v>1</v>
+      </c>
+      <c r="G522" s="19" t="s">
         <v>1913</v>
       </c>
-      <c r="I522" s="5" t="s">
+      <c r="I522" s="19" t="s">
         <v>1916</v>
       </c>
-      <c r="J522" s="5" t="s">
+      <c r="J522" s="19" t="s">
         <v>1921</v>
       </c>
-      <c r="L522" s="5">
+      <c r="L522" s="19">
         <v>-33</v>
       </c>
-      <c r="M522" s="5">
-        <v>0</v>
-      </c>
-      <c r="N522" s="5">
-        <v>0</v>
-      </c>
-      <c r="O522" s="5" t="s">
+      <c r="M522" s="19">
+        <v>0</v>
+      </c>
+      <c r="N522" s="19">
+        <v>0</v>
+      </c>
+      <c r="O522" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="P522" s="5">
+      <c r="P522" s="19">
         <v>1000</v>
       </c>
-      <c r="Q522" s="5" t="s">
+      <c r="Q522" s="19" t="s">
         <v>1933</v>
       </c>
-      <c r="R522" s="10" t="s">
+      <c r="R522" s="39" t="s">
         <v>1936</v>
       </c>
-      <c r="W522" s="5" t="s">
+      <c r="W522" s="19" t="s">
         <v>1200</v>
       </c>
-      <c r="X522" s="5">
+      <c r="X522" s="19">
         <v>99999999</v>
       </c>
-      <c r="Y522" s="5">
-        <v>1611014400</v>
-      </c>
-      <c r="Z522" s="5">
-        <v>1611590399</v>
-      </c>
-      <c r="AA522" s="5">
+      <c r="Y522" s="19">
+        <v>1612828800</v>
+      </c>
+      <c r="Z522" s="19">
+        <v>1613404799</v>
+      </c>
+      <c r="AA522" s="19">
         <v>70</v>
       </c>
-      <c r="AH522" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI522" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL522" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM522" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="523" spans="1:39" s="5" customFormat="1">
-      <c r="A523" s="5">
+      <c r="AH522" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI522" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL522" s="19">
+        <v>1</v>
+      </c>
+      <c r="AM522" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="523" spans="1:39" s="19" customFormat="1">
+      <c r="A523" s="19">
         <v>522</v>
       </c>
-      <c r="B523" s="5">
+      <c r="B523" s="19">
         <v>10439</v>
       </c>
-      <c r="F523" s="5">
-        <v>1</v>
-      </c>
-      <c r="G523" s="5" t="s">
+      <c r="F523" s="19">
+        <v>1</v>
+      </c>
+      <c r="G523" s="19" t="s">
         <v>1914</v>
       </c>
-      <c r="I523" s="5" t="s">
+      <c r="I523" s="19" t="s">
         <v>1916</v>
       </c>
-      <c r="J523" s="5" t="s">
+      <c r="J523" s="19" t="s">
         <v>1922</v>
       </c>
-      <c r="L523" s="5">
+      <c r="L523" s="19">
         <v>-33</v>
       </c>
-      <c r="M523" s="5">
-        <v>0</v>
-      </c>
-      <c r="N523" s="5">
-        <v>0</v>
-      </c>
-      <c r="O523" s="5" t="s">
+      <c r="M523" s="19">
+        <v>0</v>
+      </c>
+      <c r="N523" s="19">
+        <v>0</v>
+      </c>
+      <c r="O523" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="P523" s="5">
+      <c r="P523" s="19">
         <v>1800</v>
       </c>
-      <c r="Q523" s="5" t="s">
+      <c r="Q523" s="19" t="s">
         <v>1934</v>
       </c>
-      <c r="R523" s="10" t="s">
+      <c r="R523" s="39" t="s">
         <v>1937</v>
       </c>
-      <c r="W523" s="5" t="s">
+      <c r="W523" s="19" t="s">
         <v>1200</v>
       </c>
-      <c r="X523" s="5">
+      <c r="X523" s="19">
         <v>99999999</v>
       </c>
-      <c r="Y523" s="5">
-        <v>1611014400</v>
-      </c>
-      <c r="Z523" s="5">
-        <v>1611590399</v>
-      </c>
-      <c r="AA523" s="5">
+      <c r="Y523" s="19">
+        <v>1612828800</v>
+      </c>
+      <c r="Z523" s="19">
+        <v>1613404799</v>
+      </c>
+      <c r="AA523" s="19">
         <v>70</v>
       </c>
-      <c r="AH523" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI523" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL523" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM523" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="524" spans="1:39" s="5" customFormat="1">
-      <c r="A524" s="5">
+      <c r="AH523" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI523" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL523" s="19">
+        <v>1</v>
+      </c>
+      <c r="AM523" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="524" spans="1:39" s="19" customFormat="1">
+      <c r="A524" s="19">
         <v>523</v>
       </c>
-      <c r="B524" s="5">
+      <c r="B524" s="19">
         <v>10440</v>
       </c>
-      <c r="F524" s="5">
-        <v>1</v>
-      </c>
-      <c r="G524" s="5" t="s">
+      <c r="F524" s="19">
+        <v>1</v>
+      </c>
+      <c r="G524" s="19" t="s">
         <v>1915</v>
       </c>
-      <c r="I524" s="5" t="s">
+      <c r="I524" s="19" t="s">
         <v>1916</v>
       </c>
-      <c r="J524" s="5" t="s">
+      <c r="J524" s="19" t="s">
         <v>1923</v>
       </c>
-      <c r="L524" s="5">
+      <c r="L524" s="19">
         <v>-33</v>
       </c>
-      <c r="M524" s="5">
-        <v>0</v>
-      </c>
-      <c r="N524" s="5">
-        <v>0</v>
-      </c>
-      <c r="O524" s="5" t="s">
+      <c r="M524" s="19">
+        <v>0</v>
+      </c>
+      <c r="N524" s="19">
+        <v>0</v>
+      </c>
+      <c r="O524" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="P524" s="5">
+      <c r="P524" s="19">
         <v>4800</v>
       </c>
-      <c r="Q524" s="5" t="s">
+      <c r="Q524" s="19" t="s">
         <v>1935</v>
       </c>
-      <c r="R524" s="10" t="s">
+      <c r="R524" s="39" t="s">
         <v>1938</v>
       </c>
-      <c r="W524" s="5" t="s">
+      <c r="W524" s="19" t="s">
         <v>1200</v>
       </c>
-      <c r="X524" s="5">
+      <c r="X524" s="19">
         <v>99999999</v>
       </c>
-      <c r="Y524" s="5">
-        <v>1611014400</v>
-      </c>
-      <c r="Z524" s="5">
-        <v>1611590399</v>
-      </c>
-      <c r="AA524" s="5">
+      <c r="Y524" s="19">
+        <v>1612828800</v>
+      </c>
+      <c r="Z524" s="19">
+        <v>1613404799</v>
+      </c>
+      <c r="AA524" s="19">
         <v>70</v>
       </c>
-      <c r="AH524" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI524" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL524" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM524" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="525" spans="1:39" s="5" customFormat="1">
-      <c r="A525" s="5">
+      <c r="AH524" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI524" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL524" s="19">
+        <v>1</v>
+      </c>
+      <c r="AM524" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="525" spans="1:39" s="19" customFormat="1">
+      <c r="A525" s="19">
         <v>524</v>
       </c>
-      <c r="B525" s="5">
+      <c r="B525" s="19">
         <v>10441</v>
       </c>
-      <c r="F525" s="5">
-        <v>1</v>
-      </c>
-      <c r="G525" s="5" t="s">
+      <c r="F525" s="19">
+        <v>1</v>
+      </c>
+      <c r="G525" s="19" t="s">
         <v>1912</v>
       </c>
-      <c r="I525" s="5" t="s">
+      <c r="I525" s="19" t="s">
         <v>1917</v>
       </c>
-      <c r="J525" s="5" t="s">
+      <c r="J525" s="19" t="s">
         <v>1920</v>
       </c>
-      <c r="L525" s="5">
+      <c r="L525" s="19">
         <v>-33</v>
       </c>
-      <c r="M525" s="5">
-        <v>0</v>
-      </c>
-      <c r="N525" s="5">
-        <v>0</v>
-      </c>
-      <c r="O525" s="5" t="s">
+      <c r="M525" s="19">
+        <v>0</v>
+      </c>
+      <c r="N525" s="19">
+        <v>0</v>
+      </c>
+      <c r="O525" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="P525" s="5">
+      <c r="P525" s="19">
         <v>1800</v>
       </c>
-      <c r="Q525" s="5" t="s">
+      <c r="Q525" s="19" t="s">
         <v>1932</v>
       </c>
-      <c r="R525" s="10" t="s">
+      <c r="R525" s="39" t="s">
         <v>1944</v>
       </c>
-      <c r="W525" s="5" t="s">
+      <c r="W525" s="19" t="s">
         <v>1200</v>
       </c>
-      <c r="X525" s="5">
+      <c r="X525" s="19">
         <v>99999999</v>
       </c>
-      <c r="Y525" s="5">
-        <v>1611014400</v>
-      </c>
-      <c r="Z525" s="5">
-        <v>1611590399</v>
-      </c>
-      <c r="AA525" s="5">
+      <c r="Y525" s="19">
+        <v>1612828800</v>
+      </c>
+      <c r="Z525" s="19">
+        <v>1613404799</v>
+      </c>
+      <c r="AA525" s="19">
         <v>71</v>
       </c>
-      <c r="AH525" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI525" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL525" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM525" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="526" spans="1:39" s="5" customFormat="1">
-      <c r="A526" s="5">
+      <c r="AH525" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI525" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL525" s="19">
+        <v>1</v>
+      </c>
+      <c r="AM525" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="526" spans="1:39" s="19" customFormat="1">
+      <c r="A526" s="19">
         <v>525</v>
       </c>
-      <c r="B526" s="5">
+      <c r="B526" s="19">
         <v>10442</v>
       </c>
-      <c r="F526" s="5">
-        <v>1</v>
-      </c>
-      <c r="G526" s="5" t="s">
+      <c r="F526" s="19">
+        <v>1</v>
+      </c>
+      <c r="G526" s="19" t="s">
         <v>1913</v>
       </c>
-      <c r="I526" s="5" t="s">
+      <c r="I526" s="19" t="s">
         <v>1917</v>
       </c>
-      <c r="J526" s="5" t="s">
+      <c r="J526" s="19" t="s">
         <v>1924</v>
       </c>
-      <c r="L526" s="5">
+      <c r="L526" s="19">
         <v>-33</v>
       </c>
-      <c r="M526" s="5">
-        <v>0</v>
-      </c>
-      <c r="N526" s="5">
-        <v>0</v>
-      </c>
-      <c r="O526" s="5" t="s">
+      <c r="M526" s="19">
+        <v>0</v>
+      </c>
+      <c r="N526" s="19">
+        <v>0</v>
+      </c>
+      <c r="O526" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="P526" s="5">
+      <c r="P526" s="19">
         <v>4800</v>
       </c>
-      <c r="Q526" s="5" t="s">
+      <c r="Q526" s="19" t="s">
         <v>1933</v>
       </c>
-      <c r="R526" s="10" t="s">
+      <c r="R526" s="39" t="s">
         <v>1945</v>
       </c>
-      <c r="W526" s="5" t="s">
+      <c r="W526" s="19" t="s">
         <v>1200</v>
       </c>
-      <c r="X526" s="5">
+      <c r="X526" s="19">
         <v>99999999</v>
       </c>
-      <c r="Y526" s="5">
-        <v>1611014400</v>
-      </c>
-      <c r="Z526" s="5">
-        <v>1611590399</v>
-      </c>
-      <c r="AA526" s="5">
+      <c r="Y526" s="19">
+        <v>1612828800</v>
+      </c>
+      <c r="Z526" s="19">
+        <v>1613404799</v>
+      </c>
+      <c r="AA526" s="19">
         <v>71</v>
       </c>
-      <c r="AH526" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI526" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL526" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM526" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="527" spans="1:39" s="5" customFormat="1">
-      <c r="A527" s="5">
+      <c r="AH526" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI526" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL526" s="19">
+        <v>1</v>
+      </c>
+      <c r="AM526" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="527" spans="1:39" s="19" customFormat="1">
+      <c r="A527" s="19">
         <v>526</v>
       </c>
-      <c r="B527" s="5">
+      <c r="B527" s="19">
         <v>10443</v>
       </c>
-      <c r="F527" s="5">
-        <v>1</v>
-      </c>
-      <c r="G527" s="5" t="s">
+      <c r="F527" s="19">
+        <v>1</v>
+      </c>
+      <c r="G527" s="19" t="s">
         <v>1914</v>
       </c>
-      <c r="I527" s="5" t="s">
+      <c r="I527" s="19" t="s">
         <v>1917</v>
       </c>
-      <c r="J527" s="5" t="s">
+      <c r="J527" s="19" t="s">
         <v>1925</v>
       </c>
-      <c r="L527" s="5">
+      <c r="L527" s="19">
         <v>-33</v>
       </c>
-      <c r="M527" s="5">
-        <v>0</v>
-      </c>
-      <c r="N527" s="5">
-        <v>0</v>
-      </c>
-      <c r="O527" s="5" t="s">
+      <c r="M527" s="19">
+        <v>0</v>
+      </c>
+      <c r="N527" s="19">
+        <v>0</v>
+      </c>
+      <c r="O527" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="P527" s="5">
+      <c r="P527" s="19">
         <v>9800</v>
       </c>
-      <c r="Q527" s="5" t="s">
+      <c r="Q527" s="19" t="s">
         <v>1934</v>
       </c>
-      <c r="R527" s="10" t="s">
+      <c r="R527" s="39" t="s">
         <v>1946</v>
       </c>
-      <c r="W527" s="5" t="s">
+      <c r="W527" s="19" t="s">
         <v>1200</v>
       </c>
-      <c r="X527" s="5">
+      <c r="X527" s="19">
         <v>99999999</v>
       </c>
-      <c r="Y527" s="5">
-        <v>1611014400</v>
-      </c>
-      <c r="Z527" s="5">
-        <v>1611590399</v>
-      </c>
-      <c r="AA527" s="5">
+      <c r="Y527" s="19">
+        <v>1612828800</v>
+      </c>
+      <c r="Z527" s="19">
+        <v>1613404799</v>
+      </c>
+      <c r="AA527" s="19">
         <v>71</v>
       </c>
-      <c r="AH527" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI527" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL527" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM527" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="528" spans="1:39" s="5" customFormat="1">
-      <c r="A528" s="5">
+      <c r="AH527" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI527" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL527" s="19">
+        <v>1</v>
+      </c>
+      <c r="AM527" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="528" spans="1:39" s="19" customFormat="1">
+      <c r="A528" s="19">
         <v>527</v>
       </c>
-      <c r="B528" s="5">
+      <c r="B528" s="19">
         <v>10444</v>
       </c>
-      <c r="F528" s="5">
-        <v>1</v>
-      </c>
-      <c r="G528" s="5" t="s">
+      <c r="F528" s="19">
+        <v>1</v>
+      </c>
+      <c r="G528" s="19" t="s">
         <v>1915</v>
       </c>
-      <c r="I528" s="5" t="s">
+      <c r="I528" s="19" t="s">
         <v>1917</v>
       </c>
-      <c r="J528" s="5" t="s">
+      <c r="J528" s="19" t="s">
         <v>1926</v>
       </c>
-      <c r="L528" s="5">
+      <c r="L528" s="19">
         <v>-33</v>
       </c>
-      <c r="M528" s="5">
-        <v>0</v>
-      </c>
-      <c r="N528" s="5">
-        <v>0</v>
-      </c>
-      <c r="O528" s="5" t="s">
+      <c r="M528" s="19">
+        <v>0</v>
+      </c>
+      <c r="N528" s="19">
+        <v>0</v>
+      </c>
+      <c r="O528" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="P528" s="5">
+      <c r="P528" s="19">
         <v>19800</v>
       </c>
-      <c r="Q528" s="5" t="s">
+      <c r="Q528" s="19" t="s">
         <v>1935</v>
       </c>
-      <c r="R528" s="10" t="s">
+      <c r="R528" s="39" t="s">
         <v>1941</v>
       </c>
-      <c r="W528" s="5" t="s">
+      <c r="W528" s="19" t="s">
         <v>1200</v>
       </c>
-      <c r="X528" s="5">
+      <c r="X528" s="19">
         <v>99999999</v>
       </c>
-      <c r="Y528" s="5">
-        <v>1611014400</v>
-      </c>
-      <c r="Z528" s="5">
-        <v>1611590399</v>
-      </c>
-      <c r="AA528" s="5">
+      <c r="Y528" s="19">
+        <v>1612828800</v>
+      </c>
+      <c r="Z528" s="19">
+        <v>1613404799</v>
+      </c>
+      <c r="AA528" s="19">
         <v>71</v>
       </c>
-      <c r="AH528" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI528" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL528" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM528" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="529" spans="1:39" s="5" customFormat="1">
-      <c r="A529" s="5">
+      <c r="AH528" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI528" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL528" s="19">
+        <v>1</v>
+      </c>
+      <c r="AM528" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="529" spans="1:39" s="19" customFormat="1">
+      <c r="A529" s="19">
         <v>528</v>
       </c>
-      <c r="B529" s="5">
+      <c r="B529" s="19">
         <v>10445</v>
       </c>
-      <c r="F529" s="5">
-        <v>1</v>
-      </c>
-      <c r="G529" s="5" t="s">
+      <c r="F529" s="19">
+        <v>1</v>
+      </c>
+      <c r="G529" s="19" t="s">
         <v>1912</v>
       </c>
-      <c r="I529" s="5" t="s">
+      <c r="I529" s="19" t="s">
         <v>1918</v>
       </c>
-      <c r="J529" s="5" t="s">
+      <c r="J529" s="19" t="s">
         <v>1927</v>
       </c>
-      <c r="L529" s="5">
+      <c r="L529" s="19">
         <v>-33</v>
       </c>
-      <c r="M529" s="5">
-        <v>0</v>
-      </c>
-      <c r="N529" s="5">
-        <v>0</v>
-      </c>
-      <c r="O529" s="5" t="s">
+      <c r="M529" s="19">
+        <v>0</v>
+      </c>
+      <c r="N529" s="19">
+        <v>0</v>
+      </c>
+      <c r="O529" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="P529" s="5">
+      <c r="P529" s="19">
         <v>4800</v>
       </c>
-      <c r="Q529" s="5" t="s">
+      <c r="Q529" s="19" t="s">
         <v>1932</v>
       </c>
-      <c r="R529" s="10" t="s">
+      <c r="R529" s="39" t="s">
         <v>1939</v>
       </c>
-      <c r="W529" s="5" t="s">
+      <c r="W529" s="19" t="s">
         <v>1200</v>
       </c>
-      <c r="X529" s="5">
+      <c r="X529" s="19">
         <v>99999999</v>
       </c>
-      <c r="Y529" s="5">
-        <v>1611014400</v>
-      </c>
-      <c r="Z529" s="5">
-        <v>1611590399</v>
-      </c>
-      <c r="AA529" s="5">
+      <c r="Y529" s="19">
+        <v>1612828800</v>
+      </c>
+      <c r="Z529" s="19">
+        <v>1613404799</v>
+      </c>
+      <c r="AA529" s="19">
         <v>72</v>
       </c>
-      <c r="AH529" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI529" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL529" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM529" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="530" spans="1:39" s="5" customFormat="1">
-      <c r="A530" s="5">
+      <c r="AH529" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI529" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL529" s="19">
+        <v>1</v>
+      </c>
+      <c r="AM529" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="530" spans="1:39" s="19" customFormat="1">
+      <c r="A530" s="19">
         <v>529</v>
       </c>
-      <c r="B530" s="5">
+      <c r="B530" s="19">
         <v>10446</v>
       </c>
-      <c r="F530" s="5">
-        <v>1</v>
-      </c>
-      <c r="G530" s="5" t="s">
+      <c r="F530" s="19">
+        <v>1</v>
+      </c>
+      <c r="G530" s="19" t="s">
         <v>1913</v>
       </c>
-      <c r="I530" s="5" t="s">
+      <c r="I530" s="19" t="s">
         <v>1918</v>
       </c>
-      <c r="J530" s="5" t="s">
+      <c r="J530" s="19" t="s">
         <v>1928</v>
       </c>
-      <c r="L530" s="5">
+      <c r="L530" s="19">
         <v>-33</v>
       </c>
-      <c r="M530" s="5">
-        <v>0</v>
-      </c>
-      <c r="N530" s="5">
-        <v>0</v>
-      </c>
-      <c r="O530" s="5" t="s">
+      <c r="M530" s="19">
+        <v>0</v>
+      </c>
+      <c r="N530" s="19">
+        <v>0</v>
+      </c>
+      <c r="O530" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="P530" s="5">
+      <c r="P530" s="19">
         <v>9800</v>
       </c>
-      <c r="Q530" s="5" t="s">
+      <c r="Q530" s="19" t="s">
         <v>1933</v>
       </c>
-      <c r="R530" s="10" t="s">
+      <c r="R530" s="39" t="s">
         <v>1943</v>
       </c>
-      <c r="W530" s="5" t="s">
+      <c r="W530" s="19" t="s">
         <v>1200</v>
       </c>
-      <c r="X530" s="5">
+      <c r="X530" s="19">
         <v>99999999</v>
       </c>
-      <c r="Y530" s="5">
-        <v>1611014400</v>
-      </c>
-      <c r="Z530" s="5">
-        <v>1611590399</v>
-      </c>
-      <c r="AA530" s="5">
+      <c r="Y530" s="19">
+        <v>1612828800</v>
+      </c>
+      <c r="Z530" s="19">
+        <v>1613404799</v>
+      </c>
+      <c r="AA530" s="19">
         <v>72</v>
       </c>
-      <c r="AH530" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI530" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL530" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM530" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="531" spans="1:39" s="5" customFormat="1">
-      <c r="A531" s="5">
+      <c r="AH530" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI530" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL530" s="19">
+        <v>1</v>
+      </c>
+      <c r="AM530" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="531" spans="1:39" s="19" customFormat="1">
+      <c r="A531" s="19">
         <v>530</v>
       </c>
-      <c r="B531" s="5">
+      <c r="B531" s="19">
         <v>10447</v>
       </c>
-      <c r="F531" s="5">
-        <v>1</v>
-      </c>
-      <c r="G531" s="5" t="s">
+      <c r="F531" s="19">
+        <v>1</v>
+      </c>
+      <c r="G531" s="19" t="s">
         <v>1914</v>
       </c>
-      <c r="I531" s="5" t="s">
+      <c r="I531" s="19" t="s">
         <v>1918</v>
       </c>
-      <c r="J531" s="5" t="s">
+      <c r="J531" s="19" t="s">
         <v>1929</v>
       </c>
-      <c r="L531" s="5">
+      <c r="L531" s="19">
         <v>-33</v>
       </c>
-      <c r="M531" s="5">
-        <v>0</v>
-      </c>
-      <c r="N531" s="5">
-        <v>0</v>
-      </c>
-      <c r="O531" s="5" t="s">
+      <c r="M531" s="19">
+        <v>0</v>
+      </c>
+      <c r="N531" s="19">
+        <v>0</v>
+      </c>
+      <c r="O531" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="P531" s="5">
+      <c r="P531" s="19">
         <v>19800</v>
       </c>
-      <c r="Q531" s="5" t="s">
+      <c r="Q531" s="19" t="s">
         <v>1934</v>
       </c>
-      <c r="R531" s="10" t="s">
+      <c r="R531" s="39" t="s">
         <v>1940</v>
       </c>
-      <c r="W531" s="5" t="s">
+      <c r="W531" s="19" t="s">
         <v>1200</v>
       </c>
-      <c r="X531" s="5">
+      <c r="X531" s="19">
         <v>99999999</v>
       </c>
-      <c r="Y531" s="5">
-        <v>1611014400</v>
-      </c>
-      <c r="Z531" s="5">
-        <v>1611590399</v>
-      </c>
-      <c r="AA531" s="5">
+      <c r="Y531" s="19">
+        <v>1612828800</v>
+      </c>
+      <c r="Z531" s="19">
+        <v>1613404799</v>
+      </c>
+      <c r="AA531" s="19">
         <v>72</v>
       </c>
-      <c r="AH531" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI531" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL531" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM531" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="532" spans="1:39" s="5" customFormat="1">
-      <c r="A532" s="5">
+      <c r="AH531" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI531" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL531" s="19">
+        <v>1</v>
+      </c>
+      <c r="AM531" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="532" spans="1:39" s="19" customFormat="1">
+      <c r="A532" s="19">
         <v>531</v>
       </c>
-      <c r="B532" s="5">
+      <c r="B532" s="19">
         <v>10448</v>
       </c>
-      <c r="F532" s="5">
-        <v>1</v>
-      </c>
-      <c r="G532" s="5" t="s">
+      <c r="F532" s="19">
+        <v>1</v>
+      </c>
+      <c r="G532" s="19" t="s">
         <v>1915</v>
       </c>
-      <c r="I532" s="5" t="s">
+      <c r="I532" s="19" t="s">
         <v>1918</v>
       </c>
-      <c r="J532" s="5" t="s">
+      <c r="J532" s="19" t="s">
         <v>1930</v>
       </c>
-      <c r="L532" s="5">
+      <c r="L532" s="19">
         <v>-33</v>
       </c>
-      <c r="M532" s="5">
-        <v>0</v>
-      </c>
-      <c r="N532" s="5">
-        <v>0</v>
-      </c>
-      <c r="O532" s="5" t="s">
+      <c r="M532" s="19">
+        <v>0</v>
+      </c>
+      <c r="N532" s="19">
+        <v>0</v>
+      </c>
+      <c r="O532" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="P532" s="5">
+      <c r="P532" s="19">
         <v>49800</v>
       </c>
-      <c r="Q532" s="5" t="s">
+      <c r="Q532" s="19" t="s">
         <v>1935</v>
       </c>
-      <c r="R532" s="10" t="s">
+      <c r="R532" s="39" t="s">
         <v>1942</v>
       </c>
-      <c r="W532" s="5" t="s">
+      <c r="W532" s="19" t="s">
         <v>1200</v>
       </c>
-      <c r="X532" s="5">
+      <c r="X532" s="19">
         <v>99999999</v>
       </c>
-      <c r="Y532" s="5">
-        <v>1611014400</v>
-      </c>
-      <c r="Z532" s="5">
-        <v>1611590399</v>
-      </c>
-      <c r="AA532" s="5">
+      <c r="Y532" s="19">
+        <v>1612828800</v>
+      </c>
+      <c r="Z532" s="19">
+        <v>1613404799</v>
+      </c>
+      <c r="AA532" s="19">
         <v>72</v>
       </c>
-      <c r="AH532" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI532" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL532" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM532" s="5">
+      <c r="AH532" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI532" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL532" s="19">
+        <v>1</v>
+      </c>
+      <c r="AM532" s="19">
         <v>1</v>
       </c>
     </row>

--- a/config_2.9/shoping_config.xlsx
+++ b/config_2.9/shoping_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4459" uniqueCount="1978">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4515" uniqueCount="2004">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -8291,183 +8291,287 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_fclb_gong",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_fclb_xi",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_fclb_fa",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_fclb_cai",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000,38000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1800000,50000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,100000,1,</t>
+  </si>
+  <si>
+    <t>4800000,100000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,400000,1,</t>
+  </si>
+  <si>
+    <t>19800000,400000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>49800000,800000,1,</t>
+  </si>
+  <si>
+    <t>9800000,200000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1800000,50000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,100000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,200000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,3,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>99999999</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>51800000,50,15,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200000,30,10,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9900000,20,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4830000,10,3,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000,4,2,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>600000,1,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>51800000,50,20,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9900000,20,2,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4830000,10,6,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000,4,2,</t>
+  </si>
+  <si>
+    <t>600000,1,1,</t>
+  </si>
+  <si>
+    <t>86400,9999,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,9999,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>疯狂敲金蛋铜锤</t>
+  </si>
+  <si>
+    <t>疯狂敲金蛋银锤</t>
+  </si>
+  <si>
+    <t>疯狂敲金蛋金锤</t>
+  </si>
+  <si>
+    <t>86400,9999,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>（V8-V12）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>（V8-V12）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_brass_hammer_1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "golden_egg_1" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "golden_egg_2" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>600000,20000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>新年福袋</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "fclb_free_001" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "fclb_v1v7_001" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "fclb_v8v12_001" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "golden_egg_3" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>贺岁礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>过大年--贺岁礼包--498</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>过大年--贺岁礼包--198</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>过大年--贺岁礼包--98</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>过大年--贺岁礼包--48</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5200万金币","双倍奖励卡*10","万能字*280",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2060万金币","双倍奖励卡*6","万能字*180",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1020万金币","双倍奖励卡*4","万能字*88",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"500万金币","双倍奖励卡*2","万能字*40",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>"jing_bi","prop_3d_fish_doubled","prop_hqjnh_csbox",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin","prop_fclb_gong",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin","prop_fclb_xi",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin","prop_fclb_fa",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin","prop_fclb_cai",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000000,38000,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1800000,50000,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4800000,100000,1,</t>
-  </si>
-  <si>
-    <t>4800000,100000,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>19800000,400000,1,</t>
-  </si>
-  <si>
-    <t>19800000,400000,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>49800000,800000,1,</t>
-  </si>
-  <si>
-    <t>9800000,200000,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1800000,50000,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4800000,100000,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>9800000,200000,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>86400,3,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>99999999</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>51800000,50,15,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200000,30,10,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>9900000,20,5,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4830000,10,3,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000000,4,2,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>600000,1,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>51800000,50,20,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>9900000,20,2,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4830000,10,6,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000000,4,2,</t>
-  </si>
-  <si>
-    <t>600000,1,1,</t>
-  </si>
-  <si>
-    <t>86400,9999,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>86400,9999,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>疯狂敲金蛋铜锤</t>
-  </si>
-  <si>
-    <t>疯狂敲金蛋银锤</t>
-  </si>
-  <si>
-    <t>疯狂敲金蛋金锤</t>
-  </si>
-  <si>
-    <t>86400,9999,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>（V8-V12）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>（V8-V12）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_brass_hammer_1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "golden_egg_1" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "golden_egg_2" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>600000,20000,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>新年福袋</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "fclb_free_001" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "fclb_v1v7_001" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "fclb_v8v12_001" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "golden_egg_3" }</t>
+    <t>"jing_bi","prop_3d_fish_doubled","prop_gdn_wn",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>52000000,10,280,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000000,2,40,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10200000,4,88,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20600000,6,180,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>贺岁礼包--cjj</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_2","prop_gdn_wn",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_1","prop_gdn_wn",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_1","prop_gdn_wn",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5200万金币","太阳*1","万能字*240",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2060万金币","太阳*1","万能字*140",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1020万金币","水滴*4","万能字*60",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"500万金币","水滴*2","万能字*30",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>52000000,1,240,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20600000,1,140,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10200000,4,60,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000000,2,30,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -8546,7 +8650,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8631,6 +8735,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -8674,7 +8784,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8918,7 +9028,10 @@
     <xf numFmtId="49" fontId="3" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -11352,13 +11465,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN548"/>
+  <dimension ref="A1:AN556"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="W524" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="X539" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AA543" sqref="AA543"/>
+      <selection pane="bottomRight" activeCell="X551" sqref="X551"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -42387,7 +42500,7 @@
         <v>4800</v>
       </c>
       <c r="Q487" s="5" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="R487" s="10" t="s">
         <v>1385</v>
@@ -43040,10 +43153,10 @@
         <v>1847</v>
       </c>
       <c r="R497" s="58" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="W497" s="57" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="X497" s="5">
         <v>99999999</v>
@@ -43108,10 +43221,10 @@
         <v>1847</v>
       </c>
       <c r="R498" s="58" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="W498" s="57" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="X498" s="5">
         <v>99999999</v>
@@ -43176,10 +43289,10 @@
         <v>1872</v>
       </c>
       <c r="R499" s="58" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="W499" s="57" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="X499" s="5">
         <v>99999999</v>
@@ -43244,10 +43357,10 @@
         <v>1847</v>
       </c>
       <c r="R500" s="58" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="W500" s="57" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="X500" s="5">
         <v>99999999</v>
@@ -43312,10 +43425,10 @@
         <v>1847</v>
       </c>
       <c r="R501" s="58" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="W501" s="57" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="X501" s="5">
         <v>99999999</v>
@@ -43380,10 +43493,10 @@
         <v>1847</v>
       </c>
       <c r="R502" s="58" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="W502" s="57" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="X502" s="5">
         <v>99999999</v>
@@ -43448,10 +43561,10 @@
         <v>1848</v>
       </c>
       <c r="R503" s="56" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="W503" s="57" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="X503" s="5">
         <v>99999999</v>
@@ -43516,10 +43629,10 @@
         <v>1848</v>
       </c>
       <c r="R504" s="56" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="W504" s="57" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="X504" s="5">
         <v>99999999</v>
@@ -43584,10 +43697,10 @@
         <v>1880</v>
       </c>
       <c r="R505" s="56" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="W505" s="57" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="X505" s="5">
         <v>99999999</v>
@@ -43652,10 +43765,10 @@
         <v>1849</v>
       </c>
       <c r="R506" s="56" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="W506" s="57" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="X506" s="5">
         <v>99999999</v>
@@ -43720,10 +43833,10 @@
         <v>1849</v>
       </c>
       <c r="R507" s="56" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="W507" s="57" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="X507" s="5">
         <v>99999999</v>
@@ -43788,10 +43901,10 @@
         <v>1849</v>
       </c>
       <c r="R508" s="56" t="s">
+        <v>1959</v>
+      </c>
+      <c r="W508" s="57" t="s">
         <v>1960</v>
-      </c>
-      <c r="W508" s="57" t="s">
-        <v>1961</v>
       </c>
       <c r="X508" s="5">
         <v>99999999</v>
@@ -43854,7 +43967,7 @@
         <v>546</v>
       </c>
       <c r="X509" s="77" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="Y509" s="78">
         <v>0</v>
@@ -44033,7 +44146,7 @@
         <v>49800</v>
       </c>
       <c r="Q512" s="5" t="s">
-        <v>1931</v>
+        <v>1986</v>
       </c>
       <c r="R512" s="10" t="s">
         <v>1875</v>
@@ -44639,13 +44752,13 @@
         <v>600</v>
       </c>
       <c r="Q521" s="5" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="R521" s="10" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="W521" s="5" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="X521" s="5">
         <v>99999999</v>
@@ -44707,10 +44820,10 @@
         <v>1000</v>
       </c>
       <c r="Q522" s="5" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="R522" s="10" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="W522" s="5" t="s">
         <v>1200</v>
@@ -44775,10 +44888,10 @@
         <v>1800</v>
       </c>
       <c r="Q523" s="5" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="R523" s="10" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="W523" s="5" t="s">
         <v>1200</v>
@@ -44843,10 +44956,10 @@
         <v>4800</v>
       </c>
       <c r="Q524" s="5" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="R524" s="10" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="W524" s="5" t="s">
         <v>1200</v>
@@ -44911,10 +45024,10 @@
         <v>1800</v>
       </c>
       <c r="Q525" s="5" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="R525" s="10" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="W525" s="5" t="s">
         <v>1200</v>
@@ -44979,10 +45092,10 @@
         <v>4800</v>
       </c>
       <c r="Q526" s="5" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="R526" s="10" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="W526" s="5" t="s">
         <v>1200</v>
@@ -45047,10 +45160,10 @@
         <v>9800</v>
       </c>
       <c r="Q527" s="5" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="R527" s="10" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="W527" s="5" t="s">
         <v>1200</v>
@@ -45115,10 +45228,10 @@
         <v>19800</v>
       </c>
       <c r="Q528" s="5" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="R528" s="10" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="W528" s="5" t="s">
         <v>1200</v>
@@ -45183,10 +45296,10 @@
         <v>4800</v>
       </c>
       <c r="Q529" s="5" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="R529" s="10" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="W529" s="5" t="s">
         <v>1200</v>
@@ -45251,10 +45364,10 @@
         <v>9800</v>
       </c>
       <c r="Q530" s="5" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="R530" s="10" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="W530" s="5" t="s">
         <v>1200</v>
@@ -45319,10 +45432,10 @@
         <v>19800</v>
       </c>
       <c r="Q531" s="5" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="R531" s="10" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="W531" s="5" t="s">
         <v>1200</v>
@@ -45387,10 +45500,10 @@
         <v>49800</v>
       </c>
       <c r="Q532" s="5" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="R532" s="10" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="W532" s="5" t="s">
         <v>1200</v>
@@ -45431,7 +45544,7 @@
         <v>1</v>
       </c>
       <c r="G533" s="5" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="I533" s="5" t="s">
         <v>1285</v>
@@ -45455,13 +45568,13 @@
         <v>1800</v>
       </c>
       <c r="Q533" s="5" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="R533" s="10" t="s">
         <v>1331</v>
       </c>
       <c r="W533" s="5" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="X533" s="5">
         <v>9999999</v>
@@ -45499,7 +45612,7 @@
         <v>1</v>
       </c>
       <c r="G534" s="5" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="I534" s="5" t="s">
         <v>1285</v>
@@ -45529,7 +45642,7 @@
         <v>1332</v>
       </c>
       <c r="W534" s="5" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="X534" s="5">
         <v>9999999</v>
@@ -45567,7 +45680,7 @@
         <v>1</v>
       </c>
       <c r="G535" s="5" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="I535" s="5" t="s">
         <v>1285</v>
@@ -45597,7 +45710,7 @@
         <v>1333</v>
       </c>
       <c r="W535" s="5" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="X535" s="5">
         <v>9999999</v>
@@ -45635,7 +45748,7 @@
         <v>1</v>
       </c>
       <c r="G536" s="5" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="I536" s="5" t="s">
         <v>1217</v>
@@ -45665,7 +45778,7 @@
         <v>1333</v>
       </c>
       <c r="W536" s="5" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="X536" s="5">
         <v>9999999</v>
@@ -45703,7 +45816,7 @@
         <v>1</v>
       </c>
       <c r="G537" s="5" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="I537" s="5" t="s">
         <v>1217</v>
@@ -45733,7 +45846,7 @@
         <v>1335</v>
       </c>
       <c r="W537" s="5" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="X537" s="5">
         <v>9999999</v>
@@ -45771,7 +45884,7 @@
         <v>1</v>
       </c>
       <c r="G538" s="5" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="I538" s="5" t="s">
         <v>1217</v>
@@ -45801,7 +45914,7 @@
         <v>1336</v>
       </c>
       <c r="W538" s="5" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="X538" s="5">
         <v>9999999</v>
@@ -45839,10 +45952,10 @@
         <v>1</v>
       </c>
       <c r="G539" s="5" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="I539" s="5" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="J539" s="5" t="s">
         <v>1318</v>
@@ -45869,7 +45982,7 @@
         <v>1337</v>
       </c>
       <c r="W539" s="5" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="X539" s="5">
         <v>9999999</v>
@@ -45907,10 +46020,10 @@
         <v>1</v>
       </c>
       <c r="G540" s="5" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="I540" s="5" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="J540" s="5" t="s">
         <v>1319</v>
@@ -45937,7 +46050,7 @@
         <v>1336</v>
       </c>
       <c r="W540" s="5" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="X540" s="5">
         <v>9999999</v>
@@ -45975,10 +46088,10 @@
         <v>1</v>
       </c>
       <c r="G541" s="5" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="I541" s="5" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="J541" s="5" t="s">
         <v>1320</v>
@@ -46005,7 +46118,7 @@
         <v>1338</v>
       </c>
       <c r="W541" s="5" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="X541" s="5">
         <v>9999999</v>
@@ -46036,61 +46149,52 @@
       <c r="A542" s="5">
         <v>541</v>
       </c>
-      <c r="B542" s="79">
+      <c r="B542" s="5">
         <v>10458</v>
       </c>
-      <c r="C542" s="79"/>
-      <c r="D542" s="79"/>
-      <c r="E542" s="79"/>
-      <c r="F542" s="79">
-        <v>1</v>
-      </c>
-      <c r="G542" s="79" t="s">
+      <c r="F542" s="5">
+        <v>1</v>
+      </c>
+      <c r="G542" s="5" t="s">
         <v>1362</v>
       </c>
-      <c r="H542" s="79"/>
-      <c r="I542" s="79" t="s">
-        <v>1973</v>
-      </c>
-      <c r="J542" s="79" t="s">
+      <c r="I542" s="5" t="s">
+        <v>1972</v>
+      </c>
+      <c r="J542" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="K542" s="79"/>
-      <c r="L542" s="79">
+      <c r="L542" s="5">
         <v>-31</v>
       </c>
-      <c r="M542" s="79">
-        <v>0</v>
-      </c>
-      <c r="N542" s="79">
-        <v>0</v>
-      </c>
-      <c r="O542" s="79" t="s">
+      <c r="M542" s="5">
+        <v>0</v>
+      </c>
+      <c r="N542" s="5">
+        <v>0</v>
+      </c>
+      <c r="O542" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="P542" s="79">
+      <c r="P542" s="5">
         <v>99800</v>
       </c>
-      <c r="Q542" s="79" t="s">
+      <c r="Q542" s="5" t="s">
         <v>1707</v>
       </c>
-      <c r="R542" s="80" t="s">
+      <c r="R542" s="10" t="s">
         <v>1387</v>
       </c>
-      <c r="S542" s="79"/>
-      <c r="T542" s="79"/>
-      <c r="U542" s="79"/>
-      <c r="V542" s="79"/>
-      <c r="W542" s="79" t="s">
+      <c r="W542" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="X542" s="79">
+      <c r="X542" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y542" s="81">
+      <c r="Y542" s="11">
         <v>1612224000</v>
       </c>
-      <c r="Z542" s="81">
+      <c r="Z542" s="11">
         <v>1612799999</v>
       </c>
       <c r="AH542" s="5">
@@ -46110,61 +46214,52 @@
       <c r="A543" s="5">
         <v>542</v>
       </c>
-      <c r="B543" s="79">
+      <c r="B543" s="5">
         <v>10459</v>
       </c>
-      <c r="C543" s="79"/>
-      <c r="D543" s="79"/>
-      <c r="E543" s="79"/>
-      <c r="F543" s="79">
-        <v>1</v>
-      </c>
-      <c r="G543" s="79" t="s">
+      <c r="F543" s="5">
+        <v>1</v>
+      </c>
+      <c r="G543" s="5" t="s">
         <v>1465</v>
       </c>
-      <c r="H543" s="79"/>
-      <c r="I543" s="79" t="s">
-        <v>1973</v>
-      </c>
-      <c r="J543" s="79" t="s">
+      <c r="I543" s="5" t="s">
+        <v>1972</v>
+      </c>
+      <c r="J543" s="5" t="s">
         <v>1476</v>
       </c>
-      <c r="K543" s="79"/>
-      <c r="L543" s="79">
+      <c r="L543" s="5">
         <v>-31</v>
       </c>
-      <c r="M543" s="79">
-        <v>0</v>
-      </c>
-      <c r="N543" s="79">
-        <v>0</v>
-      </c>
-      <c r="O543" s="79" t="s">
+      <c r="M543" s="5">
+        <v>0</v>
+      </c>
+      <c r="N543" s="5">
+        <v>0</v>
+      </c>
+      <c r="O543" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="P543" s="79">
+      <c r="P543" s="5">
         <v>49800</v>
       </c>
-      <c r="Q543" s="79" t="s">
+      <c r="Q543" s="5" t="s">
         <v>1707</v>
       </c>
-      <c r="R543" s="80" t="s">
+      <c r="R543" s="10" t="s">
         <v>1386</v>
       </c>
-      <c r="S543" s="79"/>
-      <c r="T543" s="79"/>
-      <c r="U543" s="79"/>
-      <c r="V543" s="79"/>
-      <c r="W543" s="79" t="s">
+      <c r="W543" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="X543" s="79">
+      <c r="X543" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y543" s="81">
+      <c r="Y543" s="11">
         <v>1612224000</v>
       </c>
-      <c r="Z543" s="81">
+      <c r="Z543" s="11">
         <v>1612799999</v>
       </c>
       <c r="AH543" s="5">
@@ -46184,61 +46279,52 @@
       <c r="A544" s="5">
         <v>543</v>
       </c>
-      <c r="B544" s="79">
+      <c r="B544" s="5">
         <v>10460</v>
       </c>
-      <c r="C544" s="79"/>
-      <c r="D544" s="79"/>
-      <c r="E544" s="79"/>
-      <c r="F544" s="79">
-        <v>1</v>
-      </c>
-      <c r="G544" s="79" t="s">
+      <c r="F544" s="5">
+        <v>1</v>
+      </c>
+      <c r="G544" s="5" t="s">
         <v>1367</v>
       </c>
-      <c r="H544" s="79"/>
-      <c r="I544" s="79" t="s">
-        <v>1973</v>
-      </c>
-      <c r="J544" s="79" t="s">
+      <c r="I544" s="5" t="s">
+        <v>1972</v>
+      </c>
+      <c r="J544" s="5" t="s">
         <v>1475</v>
       </c>
-      <c r="K544" s="79"/>
-      <c r="L544" s="79">
+      <c r="L544" s="5">
         <v>-31</v>
       </c>
-      <c r="M544" s="79">
-        <v>0</v>
-      </c>
-      <c r="N544" s="79">
-        <v>0</v>
-      </c>
-      <c r="O544" s="79" t="s">
+      <c r="M544" s="5">
+        <v>0</v>
+      </c>
+      <c r="N544" s="5">
+        <v>0</v>
+      </c>
+      <c r="O544" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="P544" s="79">
+      <c r="P544" s="5">
         <v>29800</v>
       </c>
-      <c r="Q544" s="79" t="s">
+      <c r="Q544" s="5" t="s">
         <v>1499</v>
       </c>
-      <c r="R544" s="80" t="s">
+      <c r="R544" s="10" t="s">
         <v>1391</v>
       </c>
-      <c r="S544" s="79"/>
-      <c r="T544" s="79"/>
-      <c r="U544" s="79"/>
-      <c r="V544" s="79"/>
-      <c r="W544" s="79" t="s">
+      <c r="W544" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="X544" s="79">
+      <c r="X544" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y544" s="81">
+      <c r="Y544" s="11">
         <v>1612224000</v>
       </c>
-      <c r="Z544" s="81">
+      <c r="Z544" s="11">
         <v>1612799999</v>
       </c>
       <c r="AH544" s="5">
@@ -46258,61 +46344,52 @@
       <c r="A545" s="5">
         <v>544</v>
       </c>
-      <c r="B545" s="79">
+      <c r="B545" s="5">
         <v>10461</v>
       </c>
-      <c r="C545" s="79"/>
-      <c r="D545" s="79"/>
-      <c r="E545" s="79"/>
-      <c r="F545" s="79">
-        <v>1</v>
-      </c>
-      <c r="G545" s="79" t="s">
+      <c r="F545" s="5">
+        <v>1</v>
+      </c>
+      <c r="G545" s="5" t="s">
         <v>1370</v>
       </c>
-      <c r="H545" s="79"/>
-      <c r="I545" s="79" t="s">
-        <v>1973</v>
-      </c>
-      <c r="J545" s="79" t="s">
+      <c r="I545" s="5" t="s">
+        <v>1972</v>
+      </c>
+      <c r="J545" s="5" t="s">
         <v>1474</v>
       </c>
-      <c r="K545" s="79"/>
-      <c r="L545" s="79">
+      <c r="L545" s="5">
         <v>-31</v>
       </c>
-      <c r="M545" s="79">
-        <v>0</v>
-      </c>
-      <c r="N545" s="79">
-        <v>0</v>
-      </c>
-      <c r="O545" s="79" t="s">
+      <c r="M545" s="5">
+        <v>0</v>
+      </c>
+      <c r="N545" s="5">
+        <v>0</v>
+      </c>
+      <c r="O545" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="P545" s="79">
+      <c r="P545" s="5">
         <v>19800</v>
       </c>
-      <c r="Q545" s="79" t="s">
+      <c r="Q545" s="5" t="s">
         <v>1499</v>
       </c>
-      <c r="R545" s="80" t="s">
+      <c r="R545" s="10" t="s">
         <v>1384</v>
       </c>
-      <c r="S545" s="79"/>
-      <c r="T545" s="79"/>
-      <c r="U545" s="79"/>
-      <c r="V545" s="79"/>
-      <c r="W545" s="79" t="s">
+      <c r="W545" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="X545" s="79">
+      <c r="X545" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y545" s="81">
+      <c r="Y545" s="11">
         <v>1612224000</v>
       </c>
-      <c r="Z545" s="81">
+      <c r="Z545" s="11">
         <v>1612799999</v>
       </c>
       <c r="AH545" s="5">
@@ -46332,61 +46409,52 @@
       <c r="A546" s="5">
         <v>545</v>
       </c>
-      <c r="B546" s="79">
+      <c r="B546" s="5">
         <v>10462</v>
       </c>
-      <c r="C546" s="79"/>
-      <c r="D546" s="79"/>
-      <c r="E546" s="79"/>
-      <c r="F546" s="79">
-        <v>1</v>
-      </c>
-      <c r="G546" s="79" t="s">
+      <c r="F546" s="5">
+        <v>1</v>
+      </c>
+      <c r="G546" s="5" t="s">
         <v>1372</v>
       </c>
-      <c r="H546" s="79"/>
-      <c r="I546" s="79" t="s">
-        <v>1973</v>
-      </c>
-      <c r="J546" s="79" t="s">
+      <c r="I546" s="5" t="s">
+        <v>1972</v>
+      </c>
+      <c r="J546" s="5" t="s">
         <v>1473</v>
       </c>
-      <c r="K546" s="79"/>
-      <c r="L546" s="79">
+      <c r="L546" s="5">
         <v>-31</v>
       </c>
-      <c r="M546" s="79">
-        <v>0</v>
-      </c>
-      <c r="N546" s="79">
-        <v>0</v>
-      </c>
-      <c r="O546" s="79" t="s">
+      <c r="M546" s="5">
+        <v>0</v>
+      </c>
+      <c r="N546" s="5">
+        <v>0</v>
+      </c>
+      <c r="O546" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="P546" s="79">
+      <c r="P546" s="5">
         <v>9800</v>
       </c>
-      <c r="Q546" s="79" t="s">
+      <c r="Q546" s="5" t="s">
         <v>1499</v>
       </c>
-      <c r="R546" s="80" t="s">
+      <c r="R546" s="10" t="s">
         <v>1390</v>
       </c>
-      <c r="S546" s="79"/>
-      <c r="T546" s="79"/>
-      <c r="U546" s="79"/>
-      <c r="V546" s="79"/>
-      <c r="W546" s="79" t="s">
+      <c r="W546" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="X546" s="79">
+      <c r="X546" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y546" s="81">
+      <c r="Y546" s="11">
         <v>1612224000</v>
       </c>
-      <c r="Z546" s="81">
+      <c r="Z546" s="11">
         <v>1612799999</v>
       </c>
       <c r="AH546" s="5">
@@ -46406,61 +46474,52 @@
       <c r="A547" s="5">
         <v>546</v>
       </c>
-      <c r="B547" s="79">
+      <c r="B547" s="5">
         <v>10463</v>
       </c>
-      <c r="C547" s="79"/>
-      <c r="D547" s="79"/>
-      <c r="E547" s="79"/>
-      <c r="F547" s="79">
-        <v>1</v>
-      </c>
-      <c r="G547" s="79" t="s">
+      <c r="F547" s="5">
+        <v>1</v>
+      </c>
+      <c r="G547" s="5" t="s">
         <v>1373</v>
       </c>
-      <c r="H547" s="79"/>
-      <c r="I547" s="79" t="s">
-        <v>1973</v>
-      </c>
-      <c r="J547" s="79" t="s">
+      <c r="I547" s="5" t="s">
+        <v>1972</v>
+      </c>
+      <c r="J547" s="5" t="s">
         <v>1472</v>
       </c>
-      <c r="K547" s="79"/>
-      <c r="L547" s="79">
+      <c r="L547" s="5">
         <v>-31</v>
       </c>
-      <c r="M547" s="79">
-        <v>0</v>
-      </c>
-      <c r="N547" s="79">
-        <v>0</v>
-      </c>
-      <c r="O547" s="79" t="s">
+      <c r="M547" s="5">
+        <v>0</v>
+      </c>
+      <c r="N547" s="5">
+        <v>0</v>
+      </c>
+      <c r="O547" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="P547" s="79">
+      <c r="P547" s="5">
         <v>4800</v>
       </c>
-      <c r="Q547" s="79" t="s">
+      <c r="Q547" s="5" t="s">
         <v>1705</v>
       </c>
-      <c r="R547" s="80" t="s">
+      <c r="R547" s="10" t="s">
         <v>1385</v>
       </c>
-      <c r="S547" s="79"/>
-      <c r="T547" s="79"/>
-      <c r="U547" s="79"/>
-      <c r="V547" s="79"/>
-      <c r="W547" s="79" t="s">
+      <c r="W547" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="X547" s="79">
+      <c r="X547" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y547" s="81">
+      <c r="Y547" s="11">
         <v>1612224000</v>
       </c>
-      <c r="Z547" s="81">
+      <c r="Z547" s="11">
         <v>1612799999</v>
       </c>
       <c r="AH547" s="5">
@@ -46480,61 +46539,52 @@
       <c r="A548" s="5">
         <v>547</v>
       </c>
-      <c r="B548" s="79">
+      <c r="B548" s="5">
         <v>10464</v>
       </c>
-      <c r="C548" s="79"/>
-      <c r="D548" s="79"/>
-      <c r="E548" s="79"/>
-      <c r="F548" s="79">
-        <v>1</v>
-      </c>
-      <c r="G548" s="79" t="s">
+      <c r="F548" s="5">
+        <v>1</v>
+      </c>
+      <c r="G548" s="5" t="s">
         <v>1375</v>
       </c>
-      <c r="H548" s="79"/>
-      <c r="I548" s="79" t="s">
-        <v>1973</v>
-      </c>
-      <c r="J548" s="79" t="s">
+      <c r="I548" s="5" t="s">
+        <v>1972</v>
+      </c>
+      <c r="J548" s="5" t="s">
         <v>1471</v>
       </c>
-      <c r="K548" s="79"/>
-      <c r="L548" s="79">
+      <c r="L548" s="5">
         <v>-31</v>
       </c>
-      <c r="M548" s="79">
-        <v>0</v>
-      </c>
-      <c r="N548" s="79">
-        <v>0</v>
-      </c>
-      <c r="O548" s="79" t="s">
+      <c r="M548" s="5">
+        <v>0</v>
+      </c>
+      <c r="N548" s="5">
+        <v>0</v>
+      </c>
+      <c r="O548" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="P548" s="79">
+      <c r="P548" s="5">
         <v>1800</v>
       </c>
-      <c r="Q548" s="79" t="s">
+      <c r="Q548" s="5" t="s">
         <v>1705</v>
       </c>
-      <c r="R548" s="80" t="s">
+      <c r="R548" s="10" t="s">
         <v>1389</v>
       </c>
-      <c r="S548" s="79"/>
-      <c r="T548" s="79"/>
-      <c r="U548" s="79"/>
-      <c r="V548" s="79"/>
-      <c r="W548" s="79" t="s">
+      <c r="W548" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="X548" s="79">
+      <c r="X548" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y548" s="81">
+      <c r="Y548" s="11">
         <v>1612224000</v>
       </c>
-      <c r="Z548" s="81">
+      <c r="Z548" s="11">
         <v>1612799999</v>
       </c>
       <c r="AH548" s="5">
@@ -46547,6 +46597,550 @@
         <v>1</v>
       </c>
       <c r="AM548" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="549" spans="1:39" s="79" customFormat="1">
+      <c r="A549" s="79">
+        <v>548</v>
+      </c>
+      <c r="B549" s="79">
+        <v>10465</v>
+      </c>
+      <c r="F549" s="79">
+        <v>1</v>
+      </c>
+      <c r="G549" s="79" t="s">
+        <v>1977</v>
+      </c>
+      <c r="I549" s="79" t="s">
+        <v>1978</v>
+      </c>
+      <c r="J549" s="79" t="s">
+        <v>1982</v>
+      </c>
+      <c r="L549" s="79">
+        <v>-31</v>
+      </c>
+      <c r="M549" s="79">
+        <v>0</v>
+      </c>
+      <c r="N549" s="79">
+        <v>0</v>
+      </c>
+      <c r="O549" s="79" t="s">
+        <v>109</v>
+      </c>
+      <c r="P549" s="79">
+        <v>49800</v>
+      </c>
+      <c r="Q549" s="79" t="s">
+        <v>1987</v>
+      </c>
+      <c r="R549" s="80" t="s">
+        <v>1988</v>
+      </c>
+      <c r="W549" s="79" t="s">
+        <v>1960</v>
+      </c>
+      <c r="X549" s="79">
+        <v>9999999</v>
+      </c>
+      <c r="Y549" s="79">
+        <v>1612828800</v>
+      </c>
+      <c r="Z549" s="79">
+        <v>1613404799</v>
+      </c>
+      <c r="AA549" s="79">
+        <v>66</v>
+      </c>
+      <c r="AH549" s="79">
+        <v>1</v>
+      </c>
+      <c r="AI549" s="79">
+        <v>1</v>
+      </c>
+      <c r="AL549" s="79">
+        <v>1</v>
+      </c>
+      <c r="AM549" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="550" spans="1:39" s="79" customFormat="1">
+      <c r="A550" s="79">
+        <v>549</v>
+      </c>
+      <c r="B550" s="79">
+        <v>10466</v>
+      </c>
+      <c r="F550" s="79">
+        <v>1</v>
+      </c>
+      <c r="G550" s="79" t="s">
+        <v>1977</v>
+      </c>
+      <c r="I550" s="79" t="s">
+        <v>1979</v>
+      </c>
+      <c r="J550" s="79" t="s">
+        <v>1983</v>
+      </c>
+      <c r="L550" s="79">
+        <v>-31</v>
+      </c>
+      <c r="M550" s="79">
+        <v>0</v>
+      </c>
+      <c r="N550" s="79">
+        <v>0</v>
+      </c>
+      <c r="O550" s="79" t="s">
+        <v>109</v>
+      </c>
+      <c r="P550" s="79">
+        <v>49800</v>
+      </c>
+      <c r="Q550" s="79" t="s">
+        <v>1987</v>
+      </c>
+      <c r="R550" s="80" t="s">
+        <v>1991</v>
+      </c>
+      <c r="W550" s="79" t="s">
+        <v>1960</v>
+      </c>
+      <c r="X550" s="79">
+        <v>9999999</v>
+      </c>
+      <c r="Y550" s="79">
+        <v>1612828800</v>
+      </c>
+      <c r="Z550" s="79">
+        <v>1613404799</v>
+      </c>
+      <c r="AA550" s="79">
+        <v>66</v>
+      </c>
+      <c r="AH550" s="79">
+        <v>1</v>
+      </c>
+      <c r="AI550" s="79">
+        <v>1</v>
+      </c>
+      <c r="AL550" s="79">
+        <v>1</v>
+      </c>
+      <c r="AM550" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="551" spans="1:39" s="79" customFormat="1">
+      <c r="A551" s="79">
+        <v>550</v>
+      </c>
+      <c r="B551" s="79">
+        <v>10467</v>
+      </c>
+      <c r="F551" s="79">
+        <v>1</v>
+      </c>
+      <c r="G551" s="79" t="s">
+        <v>1977</v>
+      </c>
+      <c r="I551" s="79" t="s">
+        <v>1980</v>
+      </c>
+      <c r="J551" s="79" t="s">
+        <v>1984</v>
+      </c>
+      <c r="L551" s="79">
+        <v>-31</v>
+      </c>
+      <c r="M551" s="79">
+        <v>0</v>
+      </c>
+      <c r="N551" s="79">
+        <v>0</v>
+      </c>
+      <c r="O551" s="79" t="s">
+        <v>109</v>
+      </c>
+      <c r="P551" s="79">
+        <v>9800</v>
+      </c>
+      <c r="Q551" s="79" t="s">
+        <v>1987</v>
+      </c>
+      <c r="R551" s="80" t="s">
+        <v>1990</v>
+      </c>
+      <c r="W551" s="79" t="s">
+        <v>1960</v>
+      </c>
+      <c r="X551" s="79">
+        <v>9999999</v>
+      </c>
+      <c r="Y551" s="79">
+        <v>1612828800</v>
+      </c>
+      <c r="Z551" s="79">
+        <v>1613404799</v>
+      </c>
+      <c r="AA551" s="79">
+        <v>66</v>
+      </c>
+      <c r="AH551" s="79">
+        <v>1</v>
+      </c>
+      <c r="AI551" s="79">
+        <v>1</v>
+      </c>
+      <c r="AL551" s="79">
+        <v>1</v>
+      </c>
+      <c r="AM551" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="552" spans="1:39" s="79" customFormat="1">
+      <c r="A552" s="79">
+        <v>551</v>
+      </c>
+      <c r="B552" s="79">
+        <v>10468</v>
+      </c>
+      <c r="F552" s="79">
+        <v>1</v>
+      </c>
+      <c r="G552" s="79" t="s">
+        <v>1977</v>
+      </c>
+      <c r="I552" s="79" t="s">
+        <v>1981</v>
+      </c>
+      <c r="J552" s="79" t="s">
+        <v>1985</v>
+      </c>
+      <c r="L552" s="79">
+        <v>-31</v>
+      </c>
+      <c r="M552" s="79">
+        <v>0</v>
+      </c>
+      <c r="N552" s="79">
+        <v>0</v>
+      </c>
+      <c r="O552" s="79" t="s">
+        <v>109</v>
+      </c>
+      <c r="P552" s="79">
+        <v>4800</v>
+      </c>
+      <c r="Q552" s="79" t="s">
+        <v>1987</v>
+      </c>
+      <c r="R552" s="80" t="s">
+        <v>1989</v>
+      </c>
+      <c r="W552" s="79" t="s">
+        <v>1960</v>
+      </c>
+      <c r="X552" s="79">
+        <v>9999999</v>
+      </c>
+      <c r="Y552" s="79">
+        <v>1612828800</v>
+      </c>
+      <c r="Z552" s="79">
+        <v>1613404799</v>
+      </c>
+      <c r="AA552" s="79">
+        <v>66</v>
+      </c>
+      <c r="AH552" s="79">
+        <v>1</v>
+      </c>
+      <c r="AI552" s="79">
+        <v>1</v>
+      </c>
+      <c r="AL552" s="79">
+        <v>1</v>
+      </c>
+      <c r="AM552" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="553" spans="1:39" s="81" customFormat="1">
+      <c r="A553" s="81">
+        <v>552</v>
+      </c>
+      <c r="B553" s="81">
+        <v>10469</v>
+      </c>
+      <c r="F553" s="81">
+        <v>1</v>
+      </c>
+      <c r="G553" s="81" t="s">
+        <v>1992</v>
+      </c>
+      <c r="I553" s="81" t="s">
+        <v>1978</v>
+      </c>
+      <c r="J553" s="81" t="s">
+        <v>1996</v>
+      </c>
+      <c r="L553" s="81">
+        <v>-31</v>
+      </c>
+      <c r="M553" s="81">
+        <v>0</v>
+      </c>
+      <c r="N553" s="81">
+        <v>0</v>
+      </c>
+      <c r="O553" s="81" t="s">
+        <v>109</v>
+      </c>
+      <c r="P553" s="81">
+        <v>49800</v>
+      </c>
+      <c r="Q553" s="81" t="s">
+        <v>1993</v>
+      </c>
+      <c r="R553" s="82" t="s">
+        <v>2000</v>
+      </c>
+      <c r="W553" s="81" t="s">
+        <v>1960</v>
+      </c>
+      <c r="X553" s="81">
+        <v>9999999</v>
+      </c>
+      <c r="Y553" s="81">
+        <v>1612828800</v>
+      </c>
+      <c r="Z553" s="81">
+        <v>1613404799</v>
+      </c>
+      <c r="AA553" s="81">
+        <v>67</v>
+      </c>
+      <c r="AH553" s="81">
+        <v>1</v>
+      </c>
+      <c r="AI553" s="81">
+        <v>1</v>
+      </c>
+      <c r="AL553" s="81">
+        <v>1</v>
+      </c>
+      <c r="AM553" s="81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="554" spans="1:39" s="81" customFormat="1">
+      <c r="A554" s="81">
+        <v>553</v>
+      </c>
+      <c r="B554" s="81">
+        <v>10470</v>
+      </c>
+      <c r="F554" s="81">
+        <v>1</v>
+      </c>
+      <c r="G554" s="81" t="s">
+        <v>1992</v>
+      </c>
+      <c r="I554" s="81" t="s">
+        <v>1979</v>
+      </c>
+      <c r="J554" s="81" t="s">
+        <v>1997</v>
+      </c>
+      <c r="L554" s="81">
+        <v>-31</v>
+      </c>
+      <c r="M554" s="81">
+        <v>0</v>
+      </c>
+      <c r="N554" s="81">
+        <v>0</v>
+      </c>
+      <c r="O554" s="81" t="s">
+        <v>109</v>
+      </c>
+      <c r="P554" s="81">
+        <v>49800</v>
+      </c>
+      <c r="Q554" s="81" t="s">
+        <v>1993</v>
+      </c>
+      <c r="R554" s="82" t="s">
+        <v>2001</v>
+      </c>
+      <c r="W554" s="81" t="s">
+        <v>1960</v>
+      </c>
+      <c r="X554" s="81">
+        <v>9999999</v>
+      </c>
+      <c r="Y554" s="81">
+        <v>1612828800</v>
+      </c>
+      <c r="Z554" s="81">
+        <v>1613404799</v>
+      </c>
+      <c r="AA554" s="81">
+        <v>67</v>
+      </c>
+      <c r="AH554" s="81">
+        <v>1</v>
+      </c>
+      <c r="AI554" s="81">
+        <v>1</v>
+      </c>
+      <c r="AL554" s="81">
+        <v>1</v>
+      </c>
+      <c r="AM554" s="81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="555" spans="1:39" s="81" customFormat="1">
+      <c r="A555" s="81">
+        <v>554</v>
+      </c>
+      <c r="B555" s="81">
+        <v>10471</v>
+      </c>
+      <c r="F555" s="81">
+        <v>1</v>
+      </c>
+      <c r="G555" s="81" t="s">
+        <v>1992</v>
+      </c>
+      <c r="I555" s="81" t="s">
+        <v>1980</v>
+      </c>
+      <c r="J555" s="81" t="s">
+        <v>1998</v>
+      </c>
+      <c r="L555" s="81">
+        <v>-31</v>
+      </c>
+      <c r="M555" s="81">
+        <v>0</v>
+      </c>
+      <c r="N555" s="81">
+        <v>0</v>
+      </c>
+      <c r="O555" s="81" t="s">
+        <v>109</v>
+      </c>
+      <c r="P555" s="81">
+        <v>9800</v>
+      </c>
+      <c r="Q555" s="81" t="s">
+        <v>1994</v>
+      </c>
+      <c r="R555" s="82" t="s">
+        <v>2002</v>
+      </c>
+      <c r="W555" s="81" t="s">
+        <v>1960</v>
+      </c>
+      <c r="X555" s="81">
+        <v>9999999</v>
+      </c>
+      <c r="Y555" s="81">
+        <v>1612828800</v>
+      </c>
+      <c r="Z555" s="81">
+        <v>1613404799</v>
+      </c>
+      <c r="AA555" s="81">
+        <v>67</v>
+      </c>
+      <c r="AH555" s="81">
+        <v>1</v>
+      </c>
+      <c r="AI555" s="81">
+        <v>1</v>
+      </c>
+      <c r="AL555" s="81">
+        <v>1</v>
+      </c>
+      <c r="AM555" s="81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="556" spans="1:39" s="81" customFormat="1">
+      <c r="A556" s="81">
+        <v>555</v>
+      </c>
+      <c r="B556" s="81">
+        <v>10472</v>
+      </c>
+      <c r="F556" s="81">
+        <v>1</v>
+      </c>
+      <c r="G556" s="81" t="s">
+        <v>1992</v>
+      </c>
+      <c r="I556" s="81" t="s">
+        <v>1981</v>
+      </c>
+      <c r="J556" s="81" t="s">
+        <v>1999</v>
+      </c>
+      <c r="L556" s="81">
+        <v>-31</v>
+      </c>
+      <c r="M556" s="81">
+        <v>0</v>
+      </c>
+      <c r="N556" s="81">
+        <v>0</v>
+      </c>
+      <c r="O556" s="81" t="s">
+        <v>109</v>
+      </c>
+      <c r="P556" s="81">
+        <v>4800</v>
+      </c>
+      <c r="Q556" s="81" t="s">
+        <v>1995</v>
+      </c>
+      <c r="R556" s="82" t="s">
+        <v>2003</v>
+      </c>
+      <c r="W556" s="81" t="s">
+        <v>1960</v>
+      </c>
+      <c r="X556" s="81">
+        <v>9999999</v>
+      </c>
+      <c r="Y556" s="81">
+        <v>1612828800</v>
+      </c>
+      <c r="Z556" s="81">
+        <v>1613404799</v>
+      </c>
+      <c r="AA556" s="81">
+        <v>67</v>
+      </c>
+      <c r="AH556" s="81">
+        <v>1</v>
+      </c>
+      <c r="AI556" s="81">
+        <v>1</v>
+      </c>
+      <c r="AL556" s="81">
+        <v>1</v>
+      </c>
+      <c r="AM556" s="81">
         <v>1</v>
       </c>
     </row>
@@ -46565,8 +47159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79"/>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -47519,30 +48113,30 @@
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="12">
+      <c r="A67" s="73">
         <v>66</v>
       </c>
-      <c r="B67" s="18" t="s">
+      <c r="B67" s="74" t="s">
         <v>1841</v>
       </c>
-      <c r="C67" s="12">
-        <v>1</v>
-      </c>
-      <c r="D67" s="12">
+      <c r="C67" s="73">
+        <v>1</v>
+      </c>
+      <c r="D67" s="73">
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="12">
+      <c r="A68" s="73">
         <v>67</v>
       </c>
-      <c r="B68" s="18" t="s">
+      <c r="B68" s="74" t="s">
         <v>1842</v>
       </c>
-      <c r="C68" s="12">
-        <v>1</v>
-      </c>
-      <c r="D68" s="12">
+      <c r="C68" s="73">
+        <v>1</v>
+      </c>
+      <c r="D68" s="73">
         <v>0</v>
       </c>
     </row>
@@ -47579,7 +48173,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="74" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="C71" s="73">
         <v>1</v>
@@ -47593,7 +48187,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="74" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="C72" s="73">
         <v>1</v>
@@ -47607,7 +48201,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="74" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="C73" s="73">
         <v>1</v>
@@ -47621,7 +48215,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="74" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="C74" s="73">
         <v>1</v>
@@ -47635,7 +48229,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="74" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="C75" s="73">
         <v>1</v>
@@ -47649,7 +48243,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="74" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="C76" s="73">
         <v>1</v>

--- a/config_2.9/shoping_config.xlsx
+++ b/config_2.9/shoping_config.xlsx
@@ -11548,10 +11548,10 @@
   <dimension ref="A1:AN565"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="W521" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="W530" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AA547" sqref="AA547"/>
+      <selection pane="bottomRight" activeCell="W556" sqref="W556"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -46721,7 +46721,7 @@
         <v>1987</v>
       </c>
       <c r="W549" s="79" t="s">
-        <v>1960</v>
+        <v>1656</v>
       </c>
       <c r="X549" s="79">
         <v>9999999</v>
@@ -46789,7 +46789,7 @@
         <v>1990</v>
       </c>
       <c r="W550" s="79" t="s">
-        <v>1960</v>
+        <v>1656</v>
       </c>
       <c r="X550" s="79">
         <v>9999999</v>
@@ -46857,7 +46857,7 @@
         <v>1989</v>
       </c>
       <c r="W551" s="79" t="s">
-        <v>1960</v>
+        <v>1656</v>
       </c>
       <c r="X551" s="79">
         <v>9999999</v>
@@ -46925,7 +46925,7 @@
         <v>1988</v>
       </c>
       <c r="W552" s="79" t="s">
-        <v>1960</v>
+        <v>1656</v>
       </c>
       <c r="X552" s="79">
         <v>9999999</v>
@@ -46993,7 +46993,7 @@
         <v>1999</v>
       </c>
       <c r="W553" s="81" t="s">
-        <v>1960</v>
+        <v>1655</v>
       </c>
       <c r="X553" s="81">
         <v>9999999</v>
@@ -47061,7 +47061,7 @@
         <v>2000</v>
       </c>
       <c r="W554" s="81" t="s">
-        <v>1960</v>
+        <v>1655</v>
       </c>
       <c r="X554" s="81">
         <v>9999999</v>
@@ -47129,7 +47129,7 @@
         <v>2001</v>
       </c>
       <c r="W555" s="81" t="s">
-        <v>1960</v>
+        <v>1655</v>
       </c>
       <c r="X555" s="81">
         <v>9999999</v>
@@ -47197,7 +47197,7 @@
         <v>2002</v>
       </c>
       <c r="W556" s="81" t="s">
-        <v>1960</v>
+        <v>1655</v>
       </c>
       <c r="X556" s="81">
         <v>9999999</v>

--- a/config_2.9/shoping_config.xlsx
+++ b/config_2.9/shoping_config.xlsx
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4578" uniqueCount="2022">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4578" uniqueCount="2024">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -8644,6 +8644,14 @@
   </si>
   <si>
     <t>元宵福袋</t>
+  </si>
+  <si>
+    <t>5,100,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,100,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -11548,7 +11556,7 @@
   <dimension ref="A1:AN565"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="W530" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="W542" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="W556" sqref="W556"/>
@@ -46721,7 +46729,7 @@
         <v>1987</v>
       </c>
       <c r="W549" s="79" t="s">
-        <v>1656</v>
+        <v>1529</v>
       </c>
       <c r="X549" s="79">
         <v>9999999</v>
@@ -46789,7 +46797,7 @@
         <v>1990</v>
       </c>
       <c r="W550" s="79" t="s">
-        <v>1656</v>
+        <v>2022</v>
       </c>
       <c r="X550" s="79">
         <v>9999999</v>
@@ -46857,7 +46865,7 @@
         <v>1989</v>
       </c>
       <c r="W551" s="79" t="s">
-        <v>1656</v>
+        <v>2022</v>
       </c>
       <c r="X551" s="79">
         <v>9999999</v>
@@ -46925,7 +46933,7 @@
         <v>1988</v>
       </c>
       <c r="W552" s="79" t="s">
-        <v>1656</v>
+        <v>2022</v>
       </c>
       <c r="X552" s="79">
         <v>9999999</v>
@@ -46993,7 +47001,7 @@
         <v>1999</v>
       </c>
       <c r="W553" s="81" t="s">
-        <v>1655</v>
+        <v>2023</v>
       </c>
       <c r="X553" s="81">
         <v>9999999</v>
@@ -47061,7 +47069,7 @@
         <v>2000</v>
       </c>
       <c r="W554" s="81" t="s">
-        <v>1655</v>
+        <v>2023</v>
       </c>
       <c r="X554" s="81">
         <v>9999999</v>
@@ -47129,7 +47137,7 @@
         <v>2001</v>
       </c>
       <c r="W555" s="81" t="s">
-        <v>1655</v>
+        <v>2023</v>
       </c>
       <c r="X555" s="81">
         <v>9999999</v>
@@ -47197,7 +47205,7 @@
         <v>2002</v>
       </c>
       <c r="W556" s="81" t="s">
-        <v>1655</v>
+        <v>2023</v>
       </c>
       <c r="X556" s="81">
         <v>9999999</v>

--- a/config_2.9/shoping_config.xlsx
+++ b/config_2.9/shoping_config.xlsx
@@ -8447,10 +8447,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>新年福袋</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>{type="permission_class",class_value = "fclb_free_001" }</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -8645,6 +8641,9 @@
   <si>
     <t>20500000,</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>元宵福袋</t>
   </si>
 </sst>
 </file>
@@ -8856,7 +8855,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9104,6 +9103,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -11540,10 +11548,10 @@
   <dimension ref="A1:AN565"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="W509" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="W521" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z529" sqref="Z529"/>
+      <selection pane="bottomRight" activeCell="AA547" sqref="AA547"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -44218,7 +44226,7 @@
         <v>49800</v>
       </c>
       <c r="Q512" s="5" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="R512" s="10" t="s">
         <v>1875</v>
@@ -46217,458 +46225,458 @@
         <v>1</v>
       </c>
     </row>
-    <row r="542" spans="1:39" s="5" customFormat="1" ht="14.25">
-      <c r="A542" s="5">
+    <row r="542" spans="1:39" s="83" customFormat="1" ht="14.25">
+      <c r="A542" s="83">
         <v>541</v>
       </c>
-      <c r="B542" s="5">
+      <c r="B542" s="83">
         <v>10458</v>
       </c>
-      <c r="F542" s="5">
-        <v>1</v>
-      </c>
-      <c r="G542" s="5" t="s">
+      <c r="F542" s="83">
+        <v>1</v>
+      </c>
+      <c r="G542" s="83" t="s">
         <v>1362</v>
       </c>
-      <c r="I542" s="5" t="s">
-        <v>1972</v>
-      </c>
-      <c r="J542" s="5" t="s">
+      <c r="I542" s="83" t="s">
+        <v>2021</v>
+      </c>
+      <c r="J542" s="83" t="s">
         <v>1477</v>
       </c>
-      <c r="L542" s="5">
+      <c r="L542" s="83">
         <v>-31</v>
       </c>
-      <c r="M542" s="5">
-        <v>0</v>
-      </c>
-      <c r="N542" s="5">
-        <v>0</v>
-      </c>
-      <c r="O542" s="5" t="s">
+      <c r="M542" s="83">
+        <v>0</v>
+      </c>
+      <c r="N542" s="83">
+        <v>0</v>
+      </c>
+      <c r="O542" s="83" t="s">
         <v>494</v>
       </c>
-      <c r="P542" s="5">
+      <c r="P542" s="83">
         <v>99800</v>
       </c>
-      <c r="Q542" s="5" t="s">
+      <c r="Q542" s="83" t="s">
         <v>1707</v>
       </c>
-      <c r="R542" s="10" t="s">
+      <c r="R542" s="84" t="s">
         <v>1387</v>
       </c>
-      <c r="W542" s="5" t="s">
+      <c r="W542" s="83" t="s">
         <v>592</v>
       </c>
-      <c r="X542" s="5">
+      <c r="X542" s="83">
         <v>9999999</v>
       </c>
-      <c r="Y542" s="11">
-        <v>1612224000</v>
-      </c>
-      <c r="Z542" s="11">
-        <v>1612799999</v>
-      </c>
-      <c r="AH542" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI542" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL542" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM542" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="543" spans="1:39" s="5" customFormat="1" ht="14.25">
-      <c r="A543" s="5">
+      <c r="Y542" s="85">
+        <v>1614038400</v>
+      </c>
+      <c r="Z542" s="85">
+        <v>1614614399</v>
+      </c>
+      <c r="AH542" s="83">
+        <v>1</v>
+      </c>
+      <c r="AI542" s="83">
+        <v>1</v>
+      </c>
+      <c r="AL542" s="83">
+        <v>1</v>
+      </c>
+      <c r="AM542" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543" spans="1:39" s="83" customFormat="1" ht="14.25">
+      <c r="A543" s="83">
         <v>542</v>
       </c>
-      <c r="B543" s="5">
+      <c r="B543" s="83">
         <v>10459</v>
       </c>
-      <c r="F543" s="5">
-        <v>1</v>
-      </c>
-      <c r="G543" s="5" t="s">
+      <c r="F543" s="83">
+        <v>1</v>
+      </c>
+      <c r="G543" s="83" t="s">
         <v>1465</v>
       </c>
-      <c r="I543" s="5" t="s">
-        <v>1972</v>
-      </c>
-      <c r="J543" s="5" t="s">
+      <c r="I543" s="83" t="s">
+        <v>2021</v>
+      </c>
+      <c r="J543" s="83" t="s">
         <v>1476</v>
       </c>
-      <c r="L543" s="5">
+      <c r="L543" s="83">
         <v>-31</v>
       </c>
-      <c r="M543" s="5">
-        <v>0</v>
-      </c>
-      <c r="N543" s="5">
-        <v>0</v>
-      </c>
-      <c r="O543" s="5" t="s">
+      <c r="M543" s="83">
+        <v>0</v>
+      </c>
+      <c r="N543" s="83">
+        <v>0</v>
+      </c>
+      <c r="O543" s="83" t="s">
         <v>109</v>
       </c>
-      <c r="P543" s="5">
+      <c r="P543" s="83">
         <v>49800</v>
       </c>
-      <c r="Q543" s="5" t="s">
+      <c r="Q543" s="83" t="s">
         <v>1707</v>
       </c>
-      <c r="R543" s="10" t="s">
+      <c r="R543" s="84" t="s">
         <v>1386</v>
       </c>
-      <c r="W543" s="5" t="s">
+      <c r="W543" s="83" t="s">
         <v>548</v>
       </c>
-      <c r="X543" s="5">
+      <c r="X543" s="83">
         <v>9999999</v>
       </c>
-      <c r="Y543" s="11">
-        <v>1612224000</v>
-      </c>
-      <c r="Z543" s="11">
-        <v>1612799999</v>
-      </c>
-      <c r="AH543" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI543" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL543" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM543" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="544" spans="1:39" s="5" customFormat="1" ht="14.25">
-      <c r="A544" s="5">
+      <c r="Y543" s="85">
+        <v>1614038400</v>
+      </c>
+      <c r="Z543" s="85">
+        <v>1614614399</v>
+      </c>
+      <c r="AH543" s="83">
+        <v>1</v>
+      </c>
+      <c r="AI543" s="83">
+        <v>1</v>
+      </c>
+      <c r="AL543" s="83">
+        <v>1</v>
+      </c>
+      <c r="AM543" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544" spans="1:39" s="83" customFormat="1" ht="14.25">
+      <c r="A544" s="83">
         <v>543</v>
       </c>
-      <c r="B544" s="5">
+      <c r="B544" s="83">
         <v>10460</v>
       </c>
-      <c r="F544" s="5">
-        <v>1</v>
-      </c>
-      <c r="G544" s="5" t="s">
+      <c r="F544" s="83">
+        <v>1</v>
+      </c>
+      <c r="G544" s="83" t="s">
         <v>1367</v>
       </c>
-      <c r="I544" s="5" t="s">
-        <v>1972</v>
-      </c>
-      <c r="J544" s="5" t="s">
+      <c r="I544" s="83" t="s">
+        <v>2021</v>
+      </c>
+      <c r="J544" s="83" t="s">
         <v>1475</v>
       </c>
-      <c r="L544" s="5">
+      <c r="L544" s="83">
         <v>-31</v>
       </c>
-      <c r="M544" s="5">
-        <v>0</v>
-      </c>
-      <c r="N544" s="5">
-        <v>0</v>
-      </c>
-      <c r="O544" s="5" t="s">
+      <c r="M544" s="83">
+        <v>0</v>
+      </c>
+      <c r="N544" s="83">
+        <v>0</v>
+      </c>
+      <c r="O544" s="83" t="s">
         <v>109</v>
       </c>
-      <c r="P544" s="5">
+      <c r="P544" s="83">
         <v>29800</v>
       </c>
-      <c r="Q544" s="5" t="s">
+      <c r="Q544" s="83" t="s">
         <v>1499</v>
       </c>
-      <c r="R544" s="10" t="s">
+      <c r="R544" s="84" t="s">
         <v>1391</v>
       </c>
-      <c r="W544" s="5" t="s">
+      <c r="W544" s="83" t="s">
         <v>548</v>
       </c>
-      <c r="X544" s="5">
+      <c r="X544" s="83">
         <v>9999999</v>
       </c>
-      <c r="Y544" s="11">
-        <v>1612224000</v>
-      </c>
-      <c r="Z544" s="11">
-        <v>1612799999</v>
-      </c>
-      <c r="AH544" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI544" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL544" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM544" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="545" spans="1:39" s="5" customFormat="1" ht="14.25">
-      <c r="A545" s="5">
+      <c r="Y544" s="85">
+        <v>1614038400</v>
+      </c>
+      <c r="Z544" s="85">
+        <v>1614614399</v>
+      </c>
+      <c r="AH544" s="83">
+        <v>1</v>
+      </c>
+      <c r="AI544" s="83">
+        <v>1</v>
+      </c>
+      <c r="AL544" s="83">
+        <v>1</v>
+      </c>
+      <c r="AM544" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545" spans="1:39" s="83" customFormat="1" ht="14.25">
+      <c r="A545" s="83">
         <v>544</v>
       </c>
-      <c r="B545" s="5">
+      <c r="B545" s="83">
         <v>10461</v>
       </c>
-      <c r="F545" s="5">
-        <v>1</v>
-      </c>
-      <c r="G545" s="5" t="s">
+      <c r="F545" s="83">
+        <v>1</v>
+      </c>
+      <c r="G545" s="83" t="s">
         <v>1370</v>
       </c>
-      <c r="I545" s="5" t="s">
-        <v>1972</v>
-      </c>
-      <c r="J545" s="5" t="s">
+      <c r="I545" s="83" t="s">
+        <v>2021</v>
+      </c>
+      <c r="J545" s="83" t="s">
         <v>1474</v>
       </c>
-      <c r="L545" s="5">
+      <c r="L545" s="83">
         <v>-31</v>
       </c>
-      <c r="M545" s="5">
-        <v>0</v>
-      </c>
-      <c r="N545" s="5">
-        <v>0</v>
-      </c>
-      <c r="O545" s="5" t="s">
+      <c r="M545" s="83">
+        <v>0</v>
+      </c>
+      <c r="N545" s="83">
+        <v>0</v>
+      </c>
+      <c r="O545" s="83" t="s">
         <v>109</v>
       </c>
-      <c r="P545" s="5">
+      <c r="P545" s="83">
         <v>19800</v>
       </c>
-      <c r="Q545" s="5" t="s">
+      <c r="Q545" s="83" t="s">
         <v>1499</v>
       </c>
-      <c r="R545" s="10" t="s">
+      <c r="R545" s="84" t="s">
         <v>1384</v>
       </c>
-      <c r="W545" s="5" t="s">
+      <c r="W545" s="83" t="s">
         <v>548</v>
       </c>
-      <c r="X545" s="5">
+      <c r="X545" s="83">
         <v>9999999</v>
       </c>
-      <c r="Y545" s="11">
-        <v>1612224000</v>
-      </c>
-      <c r="Z545" s="11">
-        <v>1612799999</v>
-      </c>
-      <c r="AH545" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI545" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL545" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM545" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="546" spans="1:39" s="5" customFormat="1" ht="14.25">
-      <c r="A546" s="5">
+      <c r="Y545" s="85">
+        <v>1614038400</v>
+      </c>
+      <c r="Z545" s="85">
+        <v>1614614399</v>
+      </c>
+      <c r="AH545" s="83">
+        <v>1</v>
+      </c>
+      <c r="AI545" s="83">
+        <v>1</v>
+      </c>
+      <c r="AL545" s="83">
+        <v>1</v>
+      </c>
+      <c r="AM545" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546" spans="1:39" s="83" customFormat="1" ht="14.25">
+      <c r="A546" s="83">
         <v>545</v>
       </c>
-      <c r="B546" s="5">
+      <c r="B546" s="83">
         <v>10462</v>
       </c>
-      <c r="F546" s="5">
-        <v>1</v>
-      </c>
-      <c r="G546" s="5" t="s">
+      <c r="F546" s="83">
+        <v>1</v>
+      </c>
+      <c r="G546" s="83" t="s">
         <v>1372</v>
       </c>
-      <c r="I546" s="5" t="s">
-        <v>1972</v>
-      </c>
-      <c r="J546" s="5" t="s">
+      <c r="I546" s="83" t="s">
+        <v>2021</v>
+      </c>
+      <c r="J546" s="83" t="s">
         <v>1473</v>
       </c>
-      <c r="L546" s="5">
+      <c r="L546" s="83">
         <v>-31</v>
       </c>
-      <c r="M546" s="5">
-        <v>0</v>
-      </c>
-      <c r="N546" s="5">
-        <v>0</v>
-      </c>
-      <c r="O546" s="5" t="s">
+      <c r="M546" s="83">
+        <v>0</v>
+      </c>
+      <c r="N546" s="83">
+        <v>0</v>
+      </c>
+      <c r="O546" s="83" t="s">
         <v>109</v>
       </c>
-      <c r="P546" s="5">
+      <c r="P546" s="83">
         <v>9800</v>
       </c>
-      <c r="Q546" s="5" t="s">
+      <c r="Q546" s="83" t="s">
         <v>1499</v>
       </c>
-      <c r="R546" s="10" t="s">
+      <c r="R546" s="84" t="s">
         <v>1390</v>
       </c>
-      <c r="W546" s="5" t="s">
+      <c r="W546" s="83" t="s">
         <v>548</v>
       </c>
-      <c r="X546" s="5">
+      <c r="X546" s="83">
         <v>9999999</v>
       </c>
-      <c r="Y546" s="11">
-        <v>1612224000</v>
-      </c>
-      <c r="Z546" s="11">
-        <v>1612799999</v>
-      </c>
-      <c r="AH546" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI546" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL546" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM546" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="547" spans="1:39" s="5" customFormat="1" ht="14.25">
-      <c r="A547" s="5">
+      <c r="Y546" s="85">
+        <v>1614038400</v>
+      </c>
+      <c r="Z546" s="85">
+        <v>1614614399</v>
+      </c>
+      <c r="AH546" s="83">
+        <v>1</v>
+      </c>
+      <c r="AI546" s="83">
+        <v>1</v>
+      </c>
+      <c r="AL546" s="83">
+        <v>1</v>
+      </c>
+      <c r="AM546" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="547" spans="1:39" s="83" customFormat="1" ht="14.25">
+      <c r="A547" s="83">
         <v>546</v>
       </c>
-      <c r="B547" s="5">
+      <c r="B547" s="83">
         <v>10463</v>
       </c>
-      <c r="F547" s="5">
-        <v>1</v>
-      </c>
-      <c r="G547" s="5" t="s">
+      <c r="F547" s="83">
+        <v>1</v>
+      </c>
+      <c r="G547" s="83" t="s">
         <v>1373</v>
       </c>
-      <c r="I547" s="5" t="s">
-        <v>1972</v>
-      </c>
-      <c r="J547" s="5" t="s">
+      <c r="I547" s="83" t="s">
+        <v>2021</v>
+      </c>
+      <c r="J547" s="83" t="s">
         <v>1472</v>
       </c>
-      <c r="L547" s="5">
+      <c r="L547" s="83">
         <v>-31</v>
       </c>
-      <c r="M547" s="5">
-        <v>0</v>
-      </c>
-      <c r="N547" s="5">
-        <v>0</v>
-      </c>
-      <c r="O547" s="5" t="s">
+      <c r="M547" s="83">
+        <v>0</v>
+      </c>
+      <c r="N547" s="83">
+        <v>0</v>
+      </c>
+      <c r="O547" s="83" t="s">
         <v>109</v>
       </c>
-      <c r="P547" s="5">
+      <c r="P547" s="83">
         <v>4800</v>
       </c>
-      <c r="Q547" s="5" t="s">
+      <c r="Q547" s="83" t="s">
         <v>1705</v>
       </c>
-      <c r="R547" s="10" t="s">
+      <c r="R547" s="84" t="s">
         <v>1385</v>
       </c>
-      <c r="W547" s="5" t="s">
+      <c r="W547" s="83" t="s">
         <v>548</v>
       </c>
-      <c r="X547" s="5">
+      <c r="X547" s="83">
         <v>9999999</v>
       </c>
-      <c r="Y547" s="11">
-        <v>1612224000</v>
-      </c>
-      <c r="Z547" s="11">
-        <v>1612799999</v>
-      </c>
-      <c r="AH547" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI547" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL547" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM547" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="548" spans="1:39" s="5" customFormat="1" ht="14.25">
-      <c r="A548" s="5">
+      <c r="Y547" s="85">
+        <v>1614038400</v>
+      </c>
+      <c r="Z547" s="85">
+        <v>1614614399</v>
+      </c>
+      <c r="AH547" s="83">
+        <v>1</v>
+      </c>
+      <c r="AI547" s="83">
+        <v>1</v>
+      </c>
+      <c r="AL547" s="83">
+        <v>1</v>
+      </c>
+      <c r="AM547" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="548" spans="1:39" s="83" customFormat="1" ht="14.25">
+      <c r="A548" s="83">
         <v>547</v>
       </c>
-      <c r="B548" s="5">
+      <c r="B548" s="83">
         <v>10464</v>
       </c>
-      <c r="F548" s="5">
-        <v>1</v>
-      </c>
-      <c r="G548" s="5" t="s">
+      <c r="F548" s="83">
+        <v>1</v>
+      </c>
+      <c r="G548" s="83" t="s">
         <v>1375</v>
       </c>
-      <c r="I548" s="5" t="s">
-        <v>1972</v>
-      </c>
-      <c r="J548" s="5" t="s">
+      <c r="I548" s="83" t="s">
+        <v>2021</v>
+      </c>
+      <c r="J548" s="83" t="s">
         <v>1471</v>
       </c>
-      <c r="L548" s="5">
+      <c r="L548" s="83">
         <v>-31</v>
       </c>
-      <c r="M548" s="5">
-        <v>0</v>
-      </c>
-      <c r="N548" s="5">
-        <v>0</v>
-      </c>
-      <c r="O548" s="5" t="s">
+      <c r="M548" s="83">
+        <v>0</v>
+      </c>
+      <c r="N548" s="83">
+        <v>0</v>
+      </c>
+      <c r="O548" s="83" t="s">
         <v>109</v>
       </c>
-      <c r="P548" s="5">
+      <c r="P548" s="83">
         <v>1800</v>
       </c>
-      <c r="Q548" s="5" t="s">
+      <c r="Q548" s="83" t="s">
         <v>1705</v>
       </c>
-      <c r="R548" s="10" t="s">
+      <c r="R548" s="84" t="s">
         <v>1389</v>
       </c>
-      <c r="W548" s="5" t="s">
+      <c r="W548" s="83" t="s">
         <v>548</v>
       </c>
-      <c r="X548" s="5">
+      <c r="X548" s="83">
         <v>9999999</v>
       </c>
-      <c r="Y548" s="11">
-        <v>1612224000</v>
-      </c>
-      <c r="Z548" s="11">
-        <v>1612799999</v>
-      </c>
-      <c r="AH548" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI548" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL548" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM548" s="5">
+      <c r="Y548" s="85">
+        <v>1614038400</v>
+      </c>
+      <c r="Z548" s="85">
+        <v>1614614399</v>
+      </c>
+      <c r="AH548" s="83">
+        <v>1</v>
+      </c>
+      <c r="AI548" s="83">
+        <v>1</v>
+      </c>
+      <c r="AL548" s="83">
+        <v>1</v>
+      </c>
+      <c r="AM548" s="83">
         <v>1</v>
       </c>
     </row>
@@ -46683,13 +46691,13 @@
         <v>1</v>
       </c>
       <c r="G549" s="79" t="s">
+        <v>1976</v>
+      </c>
+      <c r="I549" s="79" t="s">
         <v>1977</v>
       </c>
-      <c r="I549" s="79" t="s">
-        <v>1978</v>
-      </c>
       <c r="J549" s="79" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="L549" s="79">
         <v>-31</v>
@@ -46707,10 +46715,10 @@
         <v>49800</v>
       </c>
       <c r="Q549" s="79" t="s">
+        <v>1986</v>
+      </c>
+      <c r="R549" s="80" t="s">
         <v>1987</v>
-      </c>
-      <c r="R549" s="80" t="s">
-        <v>1988</v>
       </c>
       <c r="W549" s="79" t="s">
         <v>1960</v>
@@ -46751,13 +46759,13 @@
         <v>1</v>
       </c>
       <c r="G550" s="79" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="I550" s="79" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="J550" s="79" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="L550" s="79">
         <v>-31</v>
@@ -46775,10 +46783,10 @@
         <v>49800</v>
       </c>
       <c r="Q550" s="79" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="R550" s="80" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="W550" s="79" t="s">
         <v>1960</v>
@@ -46819,13 +46827,13 @@
         <v>1</v>
       </c>
       <c r="G551" s="79" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="I551" s="79" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="J551" s="79" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="L551" s="79">
         <v>-31</v>
@@ -46843,10 +46851,10 @@
         <v>9800</v>
       </c>
       <c r="Q551" s="79" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="R551" s="80" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="W551" s="79" t="s">
         <v>1960</v>
@@ -46887,13 +46895,13 @@
         <v>1</v>
       </c>
       <c r="G552" s="79" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="I552" s="79" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="J552" s="79" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="L552" s="79">
         <v>-31</v>
@@ -46911,10 +46919,10 @@
         <v>4800</v>
       </c>
       <c r="Q552" s="79" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="R552" s="80" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="W552" s="79" t="s">
         <v>1960</v>
@@ -46955,13 +46963,13 @@
         <v>1</v>
       </c>
       <c r="G553" s="81" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="I553" s="81" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="J553" s="81" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="L553" s="81">
         <v>-31</v>
@@ -46979,10 +46987,10 @@
         <v>49800</v>
       </c>
       <c r="Q553" s="81" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="R553" s="82" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="W553" s="81" t="s">
         <v>1960</v>
@@ -47023,13 +47031,13 @@
         <v>1</v>
       </c>
       <c r="G554" s="81" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="I554" s="81" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="J554" s="81" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="L554" s="81">
         <v>-31</v>
@@ -47047,10 +47055,10 @@
         <v>49800</v>
       </c>
       <c r="Q554" s="81" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="R554" s="82" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="W554" s="81" t="s">
         <v>1960</v>
@@ -47091,13 +47099,13 @@
         <v>1</v>
       </c>
       <c r="G555" s="81" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="I555" s="81" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="J555" s="81" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="L555" s="81">
         <v>-31</v>
@@ -47115,10 +47123,10 @@
         <v>9800</v>
       </c>
       <c r="Q555" s="81" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="R555" s="82" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="W555" s="81" t="s">
         <v>1960</v>
@@ -47159,13 +47167,13 @@
         <v>1</v>
       </c>
       <c r="G556" s="81" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="I556" s="81" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="J556" s="81" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="L556" s="81">
         <v>-31</v>
@@ -47183,10 +47191,10 @@
         <v>4800</v>
       </c>
       <c r="Q556" s="81" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="R556" s="82" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="W556" s="81" t="s">
         <v>1960</v>
@@ -47230,10 +47238,10 @@
         <v>584</v>
       </c>
       <c r="I557" s="19" t="s">
+        <v>2003</v>
+      </c>
+      <c r="J557" s="19" t="s">
         <v>2004</v>
-      </c>
-      <c r="J557" s="19" t="s">
-        <v>2005</v>
       </c>
       <c r="L557" s="19">
         <v>-25</v>
@@ -47254,7 +47262,7 @@
         <v>87</v>
       </c>
       <c r="R557" s="39" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="W557" s="19" t="s">
         <v>546</v>
@@ -47296,10 +47304,10 @@
         <v>536</v>
       </c>
       <c r="I558" s="19" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="J558" s="19" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="L558" s="19">
         <v>-25</v>
@@ -47320,7 +47328,7 @@
         <v>87</v>
       </c>
       <c r="R558" s="39" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="W558" s="19" t="s">
         <v>546</v>
@@ -47362,10 +47370,10 @@
         <v>274</v>
       </c>
       <c r="I559" s="19" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="J559" s="19" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="L559" s="19">
         <v>-25</v>
@@ -47386,7 +47394,7 @@
         <v>87</v>
       </c>
       <c r="R559" s="39" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="W559" s="19" t="s">
         <v>546</v>
@@ -47428,10 +47436,10 @@
         <v>584</v>
       </c>
       <c r="I560" s="19" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="J560" s="19" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="L560" s="19">
         <v>-25</v>
@@ -47452,7 +47460,7 @@
         <v>87</v>
       </c>
       <c r="R560" s="39" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="W560" s="19" t="s">
         <v>546</v>
@@ -47494,10 +47502,10 @@
         <v>537</v>
       </c>
       <c r="I561" s="19" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="J561" s="19" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="L561" s="19">
         <v>-25</v>
@@ -47518,7 +47526,7 @@
         <v>87</v>
       </c>
       <c r="R561" s="39" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="W561" s="19" t="s">
         <v>546</v>
@@ -47560,10 +47568,10 @@
         <v>75</v>
       </c>
       <c r="I562" s="19" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="J562" s="19" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="L562" s="19">
         <v>-25</v>
@@ -47584,7 +47592,7 @@
         <v>87</v>
       </c>
       <c r="R562" s="39" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="W562" s="19" t="s">
         <v>546</v>
@@ -47626,10 +47634,10 @@
         <v>584</v>
       </c>
       <c r="I563" s="19" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="J563" s="19" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="L563" s="19">
         <v>-25</v>
@@ -47650,7 +47658,7 @@
         <v>87</v>
       </c>
       <c r="R563" s="39" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="W563" s="19" t="s">
         <v>546</v>
@@ -47692,10 +47700,10 @@
         <v>274</v>
       </c>
       <c r="I564" s="19" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="J564" s="19" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="L564" s="19">
         <v>-25</v>
@@ -47716,7 +47724,7 @@
         <v>87</v>
       </c>
       <c r="R564" s="39" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="W564" s="19" t="s">
         <v>546</v>
@@ -47758,10 +47766,10 @@
         <v>79</v>
       </c>
       <c r="I565" s="19" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="J565" s="19" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="L565" s="19">
         <v>-25</v>
@@ -47782,7 +47790,7 @@
         <v>87</v>
       </c>
       <c r="R565" s="39" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="W565" s="19" t="s">
         <v>546</v>
@@ -48839,7 +48847,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="74" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="C71" s="73">
         <v>1</v>
@@ -48853,7 +48861,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="74" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="C72" s="73">
         <v>1</v>
@@ -48867,7 +48875,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="74" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="C73" s="73">
         <v>1</v>
@@ -48909,7 +48917,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="74" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="C76" s="73">
         <v>1</v>

--- a/config_2.9/shoping_config.xlsx
+++ b/config_2.9/shoping_config.xlsx
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4578" uniqueCount="2024">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4578" uniqueCount="2021">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -8575,10 +8575,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"20万金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>"200万金币",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -8587,62 +8583,22 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"20万金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>"300万金币",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"1020万金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"20万金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>"510万金币",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"2050万金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>200000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>5100000,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>200000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>3000000,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>10200000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>200000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>20500000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>元宵福袋</t>
   </si>
   <si>
@@ -8651,6 +8607,38 @@
   </si>
   <si>
     <t>5,100,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>150000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"15万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1040万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"15万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2090万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>150000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10400000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20900000,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -11574,10 +11562,10 @@
   <dimension ref="A1:AN565"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="K533" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="O548" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P549" sqref="P549:P556"/>
+      <selection pane="bottomRight" activeCell="R570" sqref="R570"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -46265,7 +46253,7 @@
         <v>1362</v>
       </c>
       <c r="I542" s="73" t="s">
-        <v>2021</v>
+        <v>2010</v>
       </c>
       <c r="J542" s="73" t="s">
         <v>1477</v>
@@ -46330,7 +46318,7 @@
         <v>1465</v>
       </c>
       <c r="I543" s="73" t="s">
-        <v>2021</v>
+        <v>2010</v>
       </c>
       <c r="J543" s="73" t="s">
         <v>1476</v>
@@ -46395,7 +46383,7 @@
         <v>1367</v>
       </c>
       <c r="I544" s="73" t="s">
-        <v>2021</v>
+        <v>2010</v>
       </c>
       <c r="J544" s="73" t="s">
         <v>1475</v>
@@ -46460,7 +46448,7 @@
         <v>1370</v>
       </c>
       <c r="I545" s="73" t="s">
-        <v>2021</v>
+        <v>2010</v>
       </c>
       <c r="J545" s="73" t="s">
         <v>1474</v>
@@ -46525,7 +46513,7 @@
         <v>1372</v>
       </c>
       <c r="I546" s="73" t="s">
-        <v>2021</v>
+        <v>2010</v>
       </c>
       <c r="J546" s="73" t="s">
         <v>1473</v>
@@ -46590,7 +46578,7 @@
         <v>1373</v>
       </c>
       <c r="I547" s="73" t="s">
-        <v>2021</v>
+        <v>2010</v>
       </c>
       <c r="J547" s="73" t="s">
         <v>1472</v>
@@ -46655,7 +46643,7 @@
         <v>1375</v>
       </c>
       <c r="I548" s="73" t="s">
-        <v>2021</v>
+        <v>2010</v>
       </c>
       <c r="J548" s="73" t="s">
         <v>1471</v>
@@ -46815,7 +46803,7 @@
         <v>1990</v>
       </c>
       <c r="W550" s="71" t="s">
-        <v>2022</v>
+        <v>2011</v>
       </c>
       <c r="X550" s="71">
         <v>9999999</v>
@@ -46883,7 +46871,7 @@
         <v>1989</v>
       </c>
       <c r="W551" s="71" t="s">
-        <v>2022</v>
+        <v>2011</v>
       </c>
       <c r="X551" s="71">
         <v>9999999</v>
@@ -46951,7 +46939,7 @@
         <v>1988</v>
       </c>
       <c r="W552" s="71" t="s">
-        <v>2022</v>
+        <v>2011</v>
       </c>
       <c r="X552" s="71">
         <v>9999999</v>
@@ -47019,7 +47007,7 @@
         <v>1999</v>
       </c>
       <c r="W553" s="72" t="s">
-        <v>2023</v>
+        <v>2012</v>
       </c>
       <c r="X553" s="72">
         <v>9999999</v>
@@ -47087,7 +47075,7 @@
         <v>2000</v>
       </c>
       <c r="W554" s="72" t="s">
-        <v>2023</v>
+        <v>2012</v>
       </c>
       <c r="X554" s="72">
         <v>9999999</v>
@@ -47155,7 +47143,7 @@
         <v>2001</v>
       </c>
       <c r="W555" s="72" t="s">
-        <v>2023</v>
+        <v>2012</v>
       </c>
       <c r="X555" s="72">
         <v>9999999</v>
@@ -47223,7 +47211,7 @@
         <v>2002</v>
       </c>
       <c r="W556" s="72" t="s">
-        <v>2023</v>
+        <v>2012</v>
       </c>
       <c r="X556" s="72">
         <v>9999999</v>
@@ -47267,7 +47255,7 @@
         <v>2003</v>
       </c>
       <c r="J557" s="19" t="s">
-        <v>2004</v>
+        <v>2014</v>
       </c>
       <c r="L557" s="19">
         <v>-25</v>
@@ -47288,7 +47276,7 @@
         <v>87</v>
       </c>
       <c r="R557" s="80" t="s">
-        <v>2013</v>
+        <v>1092</v>
       </c>
       <c r="W557" s="19" t="s">
         <v>546</v>
@@ -47333,7 +47321,7 @@
         <v>2003</v>
       </c>
       <c r="J558" s="19" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="L558" s="19">
         <v>-25</v>
@@ -47354,7 +47342,7 @@
         <v>87</v>
       </c>
       <c r="R558" s="80" t="s">
-        <v>2014</v>
+        <v>697</v>
       </c>
       <c r="W558" s="19" t="s">
         <v>546</v>
@@ -47399,7 +47387,7 @@
         <v>2003</v>
       </c>
       <c r="J559" s="19" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="L559" s="19">
         <v>-25</v>
@@ -47420,7 +47408,7 @@
         <v>87</v>
       </c>
       <c r="R559" s="80" t="s">
-        <v>2015</v>
+        <v>2008</v>
       </c>
       <c r="W559" s="19" t="s">
         <v>546</v>
@@ -47465,9 +47453,10 @@
         <v>2003</v>
       </c>
       <c r="J560" s="19" t="s">
-        <v>2007</v>
+        <v>2014</v>
       </c>
       <c r="L560" s="19">
+        <f>J55-25</f>
         <v>-25</v>
       </c>
       <c r="M560" s="19">
@@ -47486,7 +47475,7 @@
         <v>87</v>
       </c>
       <c r="R560" s="80" t="s">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="W560" s="19" t="s">
         <v>546</v>
@@ -47531,7 +47520,7 @@
         <v>2003</v>
       </c>
       <c r="J561" s="19" t="s">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="L561" s="19">
         <v>-25</v>
@@ -47552,7 +47541,7 @@
         <v>87</v>
       </c>
       <c r="R561" s="80" t="s">
-        <v>2017</v>
+        <v>2009</v>
       </c>
       <c r="W561" s="19" t="s">
         <v>546</v>
@@ -47597,7 +47586,7 @@
         <v>2003</v>
       </c>
       <c r="J562" s="19" t="s">
-        <v>2009</v>
+        <v>2015</v>
       </c>
       <c r="L562" s="19">
         <v>-25</v>
@@ -47618,7 +47607,7 @@
         <v>87</v>
       </c>
       <c r="R562" s="80" t="s">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="W562" s="19" t="s">
         <v>546</v>
@@ -47663,7 +47652,7 @@
         <v>2003</v>
       </c>
       <c r="J563" s="19" t="s">
-        <v>2010</v>
+        <v>2016</v>
       </c>
       <c r="L563" s="19">
         <v>-25</v>
@@ -47684,7 +47673,7 @@
         <v>87</v>
       </c>
       <c r="R563" s="80" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="W563" s="19" t="s">
         <v>546</v>
@@ -47729,7 +47718,7 @@
         <v>2003</v>
       </c>
       <c r="J564" s="19" t="s">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="L564" s="19">
         <v>-25</v>
@@ -47750,7 +47739,7 @@
         <v>87</v>
       </c>
       <c r="R564" s="80" t="s">
-        <v>2015</v>
+        <v>2008</v>
       </c>
       <c r="W564" s="19" t="s">
         <v>546</v>
@@ -47795,7 +47784,7 @@
         <v>2003</v>
       </c>
       <c r="J565" s="19" t="s">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="L565" s="19">
         <v>-25</v>
